--- a/Sinner_Stuff/dispatch.xlsx
+++ b/Sinner_Stuff/dispatch.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4276" uniqueCount="2034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4365" uniqueCount="2069">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -12780,6 +12780,306 @@
   </si>
   <si>
     <t xml:space="preserve">新城銀行近期出現特大搶劫案件，嫌疑人犯案風格與昔日備受關注的連環劫匪高度相似，疑為模仿犯罪，需要派出相關人員協助偵破。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forum Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">掲示板管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">게시판 관리</t>
+  </si>
+  <si>
+    <t xml:space="preserve">论坛管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">論壇管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Public Security Bureau is planning to reactivate its internal forum. The forum is currently in disarray and rampant with false information due to the long lack of management. A Sinner familiar with this type of management task is needed to aid its organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">近い将来、治安局はローカルネットワークの掲示板を再開する予定だが、長い間管理されてこなかったため、現在投稿が乱立しており、真実と虚偽の情報が入り乱れている。管理局は関連する管理業務に精通したコンビクトを派遣して、その対処を支援する必要がある。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">최근 치안국에서는 내부 네트워크의 게시판을 재적용할 예정이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">해당 게시판은 장기적으로 관리가 부족해 데이터의 진위가 확실하지 않으니</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">관리국에서 게시판 관리 업무에 익숙한 수감자를 파견해서 정리하려고 한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">近期，治安局计划重新启用内网论坛，当前论坛因长期欠缺管理而发帖混乱，信息真伪混杂，需要管理局派出一名熟悉相关管理工作的禁闭者帮助打理。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">近期，治安局計畫重新啟用內網論壇，目前論壇因長期欠缺管理而發文混亂，資訊真偽混雜，需要管理局派出一名熟悉相關管理工作的禁閉者幫助打理。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Decryption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">情報解読</t>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 판독</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信息破译</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資訊破譯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Public Security Bureau has intercepted some transactional data sent by a criminal gang, but it is scattered with dark web jargon and encrypted links that are hard to decode quickly. They urgently need someone with relevant knowledge to assist in cracking it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治安局はとある犯罪組織が送信した取引メッセージを傍受したが、ダークウェブの隠語や暗号化されたリンクが大量にあり、短時間での解読は難しい。関連する内容に詳しい者の協力が急ぎ必要だ。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">치안국에서 모 범죄 조직이 발송한 거래 데이터를 취득하였지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">그 안에는 다크웹에서 사용하는 대량의 은어와 암호화된 링크가 포함되어 있어 단기간 내에 판독할 수 없었다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">관련 내용에 대해 잘 알고 있는 사람의 판독이 급히 필요하다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">治安局截获某犯罪团伙发送的交易信息，但其中存在大量暗网黑话和加密链接，难以短时间破译，急需熟悉相关内容者协助破解。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">治安局截獲某犯罪集團發送的交易資訊，但其中存在大量暗網黑話和加密連結，難以短時間破譯，急需熟悉相關內容者協助破解。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シュルマ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">슈르마</t>
+  </si>
+  <si>
+    <t xml:space="preserve">舒鲁玛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">舒魯瑪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children Removal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">子供を帰らせる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어린이 대피</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孩童疏散</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A group of children often gathers to play in a dangerous area where the patrol works. They have repeatedly ignored warnings and have now become a disturbance. The Bureau needs to send two Sinners who can quickly earn the children's respect to help remove them.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">パトロール隊が活動する危険エリアによく集まって遊ぶ子供たちがおり、注意しても遊び続けるため、公務に支障をきたしている。管理局は現在、子供を帰らせるため、子供たちの間ですぐにリーダーシップを取れるコンビクト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">名の派遣を求められている。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">어린이들이 순찰대가 근무하는 위험 지역에 자주 모여서 논다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">여러 차례 경고했지만 계속 모이며 공무를 집행하는 데 방해가 되고 있다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">관리국에서 아이들의 신뢰를 얻을 수 있는 수감자를 지금 바로 파견하여 모여있는 아이들을 분산시켜야 한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">有一群小孩常在巡逻队工作的危险区域聚集玩闹，经提醒仍屡教不改，对公务执行造成了干扰。现需管理局派出两名能够快速在孩童间获取威信的禁闭者协助疏散。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有一群小孩常在巡邏隊工作的危險區域聚集玩鬧，經提醒仍屢教不改，對公務執行造成了干擾。現需管理局派出兩名能夠快速在孩童間獲得威信的禁閉者協助疏散。</t>
   </si>
 </sst>
 </file>
@@ -13062,16 +13362,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH145"/>
+  <dimension ref="A1:AH148"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="77.7"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -26536,90 +26833,372 @@
     </row>
     <row r="145" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
+        <v>1045001</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H145" s="0" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="M145" s="0" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N145" s="0" t="s">
+        <v>2044</v>
+      </c>
+      <c r="O145" s="0" t="s">
+        <v>2044</v>
+      </c>
+      <c r="P145" s="0" t="s">
+        <v>2044</v>
+      </c>
+      <c r="Q145" s="0" t="s">
+        <v>2044</v>
+      </c>
+      <c r="W145" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="X145" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y145" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z145" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA145" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB145" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC145" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD145" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE145" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF145" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG145" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH145" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>1045002</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="H146" s="0" t="s">
+        <v>2050</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="M146" s="0" t="s">
+        <v>2055</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="W146" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="X146" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y146" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z146" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA146" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB146" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC146" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD146" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE146" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF146" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG146" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH146" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>1045003</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H147" s="0" t="s">
+        <v>2064</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="M147" s="0" t="s">
+        <v>2055</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="R147" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="T147" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="U147" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="V147" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="W147" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="X147" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y147" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z147" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA147" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB147" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC147" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD147" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE147" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF147" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG147" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH147" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
         <v>1099001</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B148" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C148" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="H145" s="0" t="s">
+      <c r="H148" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="I148" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="J145" s="1" t="s">
+      <c r="J148" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="K145" s="1" t="s">
+      <c r="K148" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="L145" s="1" t="s">
+      <c r="L148" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="M145" s="0" t="s">
+      <c r="M148" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="N145" s="1" t="s">
+      <c r="N148" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="O145" s="1" t="s">
+      <c r="O148" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="P145" s="1" t="s">
+      <c r="P148" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="Q145" s="1" t="s">
+      <c r="Q148" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="W145" s="0" t="s">
+      <c r="W148" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="X145" s="1" t="s">
+      <c r="X148" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Y145" s="1" t="s">
+      <c r="Y148" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="Z145" s="1" t="s">
+      <c r="Z148" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AA145" s="1" t="s">
+      <c r="AA148" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AB145" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC145" s="0" t="s">
+      <c r="AB148" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC148" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="AD145" s="1" t="s">
+      <c r="AD148" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AE145" s="1" t="s">
+      <c r="AE148" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AF145" s="1" t="s">
+      <c r="AF148" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AG145" s="1" t="s">
+      <c r="AG148" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AH145" s="0" t="s">
+      <c r="AH148" s="0" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Sinner_Stuff/dispatch.xlsx
+++ b/Sinner_Stuff/dispatch.xlsx
@@ -23354,86 +23354,86 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1099001</v>
+        <v>1046001</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Dream Interpretation</t>
+          <t>Educational Seminar</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>夢の解析</t>
+          <t>科学普及講座</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>꿈의 해석</t>
+          <t>과학 지식 강연</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>梦的解析</t>
+          <t>科普讲座</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>夢的解析</t>
+          <t>科普講座</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+          <t>Nirvana Tech's prestigious programming institute for young children is recruiting a computer programming expert to conduct an educational seminar during its Science Month.</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+          <t>最近、涅槃テクノロジー傘下の有名児童プログラミング教育機関が、科学普及活動月間に科学普及講座を実施することになった。そのため、コンピュータープログラミングに精通した専門家を募集している。</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+          <t>최근 니르바나 테크의 유명한 유아 코딩 교육 기관에서 컴퓨터 코딩 관련 전문가를 초청하여 과학의 달에 과학 지식 강연을 개최하려고 한다.</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+          <t>近日，涅槃科技旗下著名幼儿编程机构招聘精通计算机编程的相关专家，在科普活动月中进行一节科普讲座。</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+          <t>近日，涅槃科技旗下著名幼兒程式設計機構招聘精通電腦程式設計的相關專家，在科普活動月中進行一堂科普講座。</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>Hecate</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>ヘカテー</t>
+          <t>ムーア</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>헤카테</t>
+          <t>무어</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>摩尔</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>摩爾</t>
         </is>
       </c>
       <c r="R148" t="inlineStr"/>
@@ -23443,60 +23443,680 @@
       <c r="V148" t="inlineStr"/>
       <c r="W148" t="inlineStr">
         <is>
+          <t>Tear Crystal</t>
+        </is>
+      </c>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>涙晶</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>눈물 결정</t>
+        </is>
+      </c>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>泪晶</t>
+        </is>
+      </c>
+      <c r="AA148" t="inlineStr">
+        <is>
+          <t>淚晶</t>
+        </is>
+      </c>
+      <c r="AB148" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC148" t="inlineStr">
+        <is>
+          <t>Tear Stone Concentrate</t>
+        </is>
+      </c>
+      <c r="AD148" t="inlineStr">
+        <is>
+          <t>涙石の精鉱</t>
+        </is>
+      </c>
+      <c r="AE148" t="inlineStr">
+        <is>
+          <t>정교한 눈물석 광석</t>
+        </is>
+      </c>
+      <c r="AF148" t="inlineStr">
+        <is>
+          <t>泪石精矿</t>
+        </is>
+      </c>
+      <c r="AG148" t="inlineStr">
+        <is>
+          <t>淚石精礦</t>
+        </is>
+      </c>
+      <c r="AH148" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1046002</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Department Reorganization</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>部門是正</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>부서 정돈</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>部门整顿</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>部門整頓</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>The Eastside Union is compiling an employee relations manual. They are urgently seeking a Sinner well versed in the subject to assist in their research.</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>ニューシティ労働組合は最近、従業員関係のマニュアルを再編しようとしており、調査研究のため従業員関係に深い見識を持つコンビクトを緊急募集している。</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>신성 근로자 협회에서는 직원 관계 가이드를 다시 제정하려고 한다. 직원 관계 관련 내용을 잘 이해하고 있는 수감자를 급하게 모집하여 관련 업무 협조를 부탁하려고 한다.</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>新城工会最近需要重新定制员工关系手册，急招一名对员工关系有深刻见解的禁闭者协助调研。</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>新城工會最近需要重新訂製員工關係手冊，急徵一名對員工關係有深刻見解的禁閉者協助調研。</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Rise</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>ライズ</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>라이즈</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>瑞思</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>瑞思</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>Tear Stone Concentrate</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>涙石の精鉱</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>정교한 눈물석 광석</t>
+        </is>
+      </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>泪石精矿</t>
+        </is>
+      </c>
+      <c r="AA149" t="inlineStr">
+        <is>
+          <t>淚石精礦</t>
+        </is>
+      </c>
+      <c r="AB149" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC149" t="inlineStr">
+        <is>
+          <t>Tear Stone Raw Ore</t>
+        </is>
+      </c>
+      <c r="AD149" t="inlineStr">
+        <is>
+          <t>涙石の原鉱</t>
+        </is>
+      </c>
+      <c r="AE149" t="inlineStr">
+        <is>
+          <t>거친 눈물석 광석</t>
+        </is>
+      </c>
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>泪石粗矿</t>
+        </is>
+      </c>
+      <c r="AG149" t="inlineStr">
+        <is>
+          <t>淚石粗礦</t>
+        </is>
+      </c>
+      <c r="AH149" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1046003</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Ball Game Tournament</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>球技大会</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>구기 대회</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>球技大赛</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>球技大賽</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>The Eastside Sport Bureau is holding a ball game tournament which will include matches for all popular ball games open to all citizens. The MBCC needs to send its own participants with relevant experience.</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>近々、ニューシティスポーツ管理局は球技大会を開催する。ニューシティで人気のある様々な球技を扱う予定なので、スポーツ管理局に関連経験を持つ人を派遣し、試合に参加してもらう必要がある。</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>최근 신성 운동 관리국이 신성에서 전 시민을 대상으로 구기 운동 대회를 개최하려 한다. 관리국에서 관련 경력이 있는 인원들을 경기에 파견해야 한다.</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>近期，新城运动管理局举办了一场球技大赛，针对新城流行的各种球类运动都发起了一场全民竞技，现需管理局派出有相关经验人员进行参赛。</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>近期，新城運動管理局舉辦了一場球技大賽，針對新城流行的各種球類運動都發起了一場全民競技，現需管理局派出有相關經驗人員參賽。</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Rise</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>ライズ</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>라이즈</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>瑞思</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>瑞思</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Dolly</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>ドリー</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>돌리</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>多莉</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>多莉</t>
+        </is>
+      </c>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>Tear Stone Concentrate</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>涙石の精鉱</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>정교한 눈물석 광석</t>
+        </is>
+      </c>
+      <c r="Z150" t="inlineStr">
+        <is>
+          <t>泪石精矿</t>
+        </is>
+      </c>
+      <c r="AA150" t="inlineStr">
+        <is>
+          <t>淚石精礦</t>
+        </is>
+      </c>
+      <c r="AB150" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC150" t="inlineStr">
+        <is>
+          <t>Tear Stone Concentrate</t>
+        </is>
+      </c>
+      <c r="AD150" t="inlineStr">
+        <is>
+          <t>涙石の精鉱</t>
+        </is>
+      </c>
+      <c r="AE150" t="inlineStr">
+        <is>
+          <t>정교한 눈물석 광석</t>
+        </is>
+      </c>
+      <c r="AF150" t="inlineStr">
+        <is>
+          <t>泪石精矿</t>
+        </is>
+      </c>
+      <c r="AG150" t="inlineStr">
+        <is>
+          <t>淚石精礦</t>
+        </is>
+      </c>
+      <c r="AH150" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1046004</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Game Testing</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>ゲームテスト</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>게임 테스트</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>游戏测试</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>遊戲測試</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>It's recently been discovered that people are exploiting bugs in video games to generate income by illegally transferring large amounts of resources, severely disrupting the equilibrium in these games. Assistance from a Sinner with relevant knowledge is required to aid the investigation.</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>最近、犯罪者が市販されているいくつかのゲームのバグを利用して、利益を得るために大量のリソースを違法に転送している。この行為がゲームバランスに重大な干渉を引き起こしていることが判明した。捜査を支援するため、関連内容に精通したコンビクトが急ぎ必要だ。</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>최근 불법자가 시장 있는 게임 프로그램의 버그를 활용해 대량의 자원을 불법으로 유출하여 이득을 취하였고, 이 행위는 게임 밸런스 유지에 악질적인 영향을 끼쳤다. 현재 급하게 관련 내용에 익숙한 수감자를 보내 수사에 협조해야 한다.</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>近日，发现有不法分子利用市面上几款游戏中的工程漏洞进行大量资源非法流转盈利操作，且该行为对游戏平衡造成了恶劣的干扰。现急需熟悉相关内容的禁闭者协助探查。</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>近日，發現有不法分子利用市面上幾款遊戲中的程式漏洞進行大量非法資金流轉盈利操作，且該行為對遊戲平衡造成了惡劣的干擾。現急需熟悉相關內容的禁閉者協助探查。</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr">
+        <is>
+          <t>Infected Horn</t>
+        </is>
+      </c>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>感染された角</t>
+        </is>
+      </c>
+      <c r="Y151" t="inlineStr">
+        <is>
+          <t>감염된 각질</t>
+        </is>
+      </c>
+      <c r="Z151" t="inlineStr">
+        <is>
+          <t>感染角质</t>
+        </is>
+      </c>
+      <c r="AA151" t="inlineStr">
+        <is>
+          <t>感染角質</t>
+        </is>
+      </c>
+      <c r="AB151" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC151" t="inlineStr">
+        <is>
+          <t>Organic Horn</t>
+        </is>
+      </c>
+      <c r="AD151" t="inlineStr">
+        <is>
+          <t>原生の角</t>
+        </is>
+      </c>
+      <c r="AE151" t="inlineStr">
+        <is>
+          <t>원시적 각질</t>
+        </is>
+      </c>
+      <c r="AF151" t="inlineStr">
+        <is>
+          <t>原生角质</t>
+        </is>
+      </c>
+      <c r="AG151" t="inlineStr">
+        <is>
+          <t>原生角質</t>
+        </is>
+      </c>
+      <c r="AH151" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1099001</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Dream Interpretation</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>夢の解析</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>꿈의 해석</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>梦的解析</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>夢的解析</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Hecate</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>ヘカテー</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>헤카테</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr">
+        <is>
           <t>Arsenopyrite Concentrate</t>
         </is>
       </c>
-      <c r="X148" t="inlineStr">
+      <c r="X152" t="inlineStr">
         <is>
           <t>毒砂の精鉱</t>
         </is>
       </c>
-      <c r="Y148" t="inlineStr">
+      <c r="Y152" t="inlineStr">
         <is>
           <t>정교한 독모래 광석</t>
         </is>
       </c>
-      <c r="Z148" t="inlineStr">
+      <c r="Z152" t="inlineStr">
         <is>
           <t>毒砂精矿</t>
         </is>
       </c>
-      <c r="AA148" t="inlineStr">
+      <c r="AA152" t="inlineStr">
         <is>
           <t>毒砂精礦</t>
         </is>
       </c>
-      <c r="AB148" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AC148" t="inlineStr">
+      <c r="AB152" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC152" t="inlineStr">
         <is>
           <t>Arsenopyrite Raw Ore</t>
         </is>
       </c>
-      <c r="AD148" t="inlineStr">
+      <c r="AD152" t="inlineStr">
         <is>
           <t>毒砂の原鉱</t>
         </is>
       </c>
-      <c r="AE148" t="inlineStr">
+      <c r="AE152" t="inlineStr">
         <is>
           <t>거친 독모래 광석</t>
         </is>
       </c>
-      <c r="AF148" t="inlineStr">
+      <c r="AF152" t="inlineStr">
         <is>
           <t>毒砂粗矿</t>
         </is>
       </c>
-      <c r="AG148" t="inlineStr">
+      <c r="AG152" t="inlineStr">
         <is>
           <t>毒砂粗礦</t>
         </is>
       </c>
-      <c r="AH148" t="inlineStr">
+      <c r="AH152" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>

--- a/Sinner_Stuff/dispatch.xlsx
+++ b/Sinner_Stuff/dispatch.xlsx
@@ -23974,86 +23974,86 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1099001</v>
+        <v>1047001</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Dream Interpretation</t>
+          <t>Bounty Offer</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>夢の解析</t>
+          <t>懸賞依頼</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>꿈의 해석</t>
+          <t>현상금 의뢰</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>梦的解析</t>
+          <t>悬赏委托</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>夢的解析</t>
+          <t>懸賞委託</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+          <t>According to credible leads, a crime boss long pursued by the Public Security Bureau has fled to WhiteSands. With the outlaw's whereabouts unknown, the Bureau decides to secretly issue a huge bounty to recruit a Sinner from WhiteSands for the capture operation.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+          <t>信頼できる情報提供者によると、治安局が長い間追跡してきた犯罪組織のリーダーが砂の海に逃亡したという。その後の行方が掴めていないため、治安局は密かに高額な懸賞金をかけて、砂の海出身のコンビクトに協力依頼を出した。</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+          <t>믿을만한 소식에 따르면, 치안국에서 오랫동안 추적해 온 범죄 조직의 두목이 화이트 샌드로 도주했다고 한다. 행방이 묘연한 가운데 치안국은 비밀리에 고액 현상금을 내걸고 화이트 샌드 현지의 수감자를 모집해 검거에 나서고자 한다.</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+          <t>据可靠线报表示，治安局追查已久的犯罪团伙头目已逃往砂海，因其行踪成谜，治安局决定秘密发布高额悬赏，招募一位砂海本地的禁闭者参与抓捕。</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+          <t>據可靠線報表示，治安局追查已久的犯罪集團頭目已逃往砂海，因其行蹤成謎，治安局決定秘密發布高額懸賞，招募一位砂海本地的禁閉者參與抓捕。</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>Hecate</t>
+          <t>Korryn</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>ヘカテー</t>
+          <t>コリン</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>헤카테</t>
+          <t>코린</t>
         </is>
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>柯琳</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>柯琳</t>
         </is>
       </c>
       <c r="R152" t="inlineStr"/>
@@ -24063,60 +24063,530 @@
       <c r="V152" t="inlineStr"/>
       <c r="W152" t="inlineStr">
         <is>
+          <t>Bronze Crystal</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>曲銅結晶</t>
+        </is>
+      </c>
+      <c r="Y152" t="inlineStr">
+        <is>
+          <t>곡선형 구리 결정</t>
+        </is>
+      </c>
+      <c r="Z152" t="inlineStr">
+        <is>
+          <t>曲铜晶</t>
+        </is>
+      </c>
+      <c r="AA152" t="inlineStr">
+        <is>
+          <t>曲銅晶</t>
+        </is>
+      </c>
+      <c r="AB152" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC152" t="inlineStr">
+        <is>
+          <t>Bronze Concentrate</t>
+        </is>
+      </c>
+      <c r="AD152" t="inlineStr">
+        <is>
+          <t>曲銅の精鉱</t>
+        </is>
+      </c>
+      <c r="AE152" t="inlineStr">
+        <is>
+          <t>정교한 곡선형 구리 광석</t>
+        </is>
+      </c>
+      <c r="AF152" t="inlineStr">
+        <is>
+          <t>曲铜精矿</t>
+        </is>
+      </c>
+      <c r="AG152" t="inlineStr">
+        <is>
+          <t>曲銅精礦</t>
+        </is>
+      </c>
+      <c r="AH152" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1047002</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Seasoned Mediator</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>調停専門家</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>중재 전문가</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>调停专家</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>調停專家</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>A violent dispute due to sales competition has broken out between two neighboring businesses on an Eastside shopping street. An experienced mediator with business management knowledge is urgently required to prevent further property damage from the escalating situation.</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>ニューシティの歩道で、隣接する二つの店舗が激しく争っている。原因は店舗間の競争の激化だ。暴力による財産の損害を軽減するため、経営と紛争調停に精通した人材を緊急派遣する必要がある。</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>신성의 한 보행자 거리에 인접해 있는 두 점포 간에 과열된 경쟁과 갈등으로 인한 싸움이 일어났다. 경영과 중재에 능한 사람을 조속히 파견해 폭행 사건으로 인한 재산 피해를 최대한 줄여야 한다.</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>新城某步行街，两处相邻店家发生激烈争执大打出手，起因为店铺之间的竞争与冲突，需要紧急派遣一位熟悉经营与冲突调停的人员，减少因暴力事件引起的财物损毁。</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>新城某步行街，兩處相鄰店家發生激烈爭執大打出手，起因為店舖之間的競爭與衝突，需要緊急派遣一位熟悉經營與衝突調停的人員，減少因暴力事件引起的財物損毀。</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Mira</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>ミラ</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>미라</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>米拉</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>米拉</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr">
+        <is>
+          <t>Bronze Concentrate</t>
+        </is>
+      </c>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>曲銅の精鉱</t>
+        </is>
+      </c>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>정교한 곡선형 구리 광석</t>
+        </is>
+      </c>
+      <c r="Z153" t="inlineStr">
+        <is>
+          <t>曲铜精矿</t>
+        </is>
+      </c>
+      <c r="AA153" t="inlineStr">
+        <is>
+          <t>曲銅精礦</t>
+        </is>
+      </c>
+      <c r="AB153" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC153" t="inlineStr">
+        <is>
+          <t>Bronze Raw Ore</t>
+        </is>
+      </c>
+      <c r="AD153" t="inlineStr">
+        <is>
+          <t>曲銅の原鉱</t>
+        </is>
+      </c>
+      <c r="AE153" t="inlineStr">
+        <is>
+          <t>거친 곡선형 구리 광석</t>
+        </is>
+      </c>
+      <c r="AF153" t="inlineStr">
+        <is>
+          <t>曲铜粗矿</t>
+        </is>
+      </c>
+      <c r="AG153" t="inlineStr">
+        <is>
+          <t>曲銅粗礦</t>
+        </is>
+      </c>
+      <c r="AH153" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1047003</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Management Expert</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>経営管理の人材</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>경영관리 인재</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>管理人才</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>管理人才</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>The Public Security Bureau's new creative merchandise has hit its lowest sales record and is making severe losses. An experienced management expert is required to provide business consultation.</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>治安局が新たに開発した文化的なオリジナルグッズの売り上げが過去最低を記録し、損失も深刻だ。管理と経営に精通した優秀な人材の指導が急務となっている。</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>치안국에서 새로 기획한 굿즈의 판매량이 사상 최저치를 기록해 심각한 손실이 발생했다. 경영관리 능력을 갖춘 인재를 조속히 파견해 지도해야 한다.</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>治安局新研发的文创产品销量创史低，亏损严重，急需熟悉管理与经营的优秀人才前去指导。</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>治安局新研發的文創產品銷量創史低，虧損嚴重，急需熟悉管理與經營的優秀人才前去指導。</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Mira</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>ミラ</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>미라</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>米拉</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>米拉</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Rise</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>ライズ</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>라이즈</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>瑞思</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>瑞思</t>
+        </is>
+      </c>
+      <c r="W154" t="inlineStr">
+        <is>
+          <t>Bronze Concentrate</t>
+        </is>
+      </c>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>曲銅の精鉱</t>
+        </is>
+      </c>
+      <c r="Y154" t="inlineStr">
+        <is>
+          <t>정교한 곡선형 구리 광석</t>
+        </is>
+      </c>
+      <c r="Z154" t="inlineStr">
+        <is>
+          <t>曲铜精矿</t>
+        </is>
+      </c>
+      <c r="AA154" t="inlineStr">
+        <is>
+          <t>曲銅精礦</t>
+        </is>
+      </c>
+      <c r="AB154" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC154" t="inlineStr">
+        <is>
+          <t>Bronze Concentrate</t>
+        </is>
+      </c>
+      <c r="AD154" t="inlineStr">
+        <is>
+          <t>曲銅の精鉱</t>
+        </is>
+      </c>
+      <c r="AE154" t="inlineStr">
+        <is>
+          <t>정교한 곡선형 구리 광석</t>
+        </is>
+      </c>
+      <c r="AF154" t="inlineStr">
+        <is>
+          <t>曲铜精矿</t>
+        </is>
+      </c>
+      <c r="AG154" t="inlineStr">
+        <is>
+          <t>曲銅精礦</t>
+        </is>
+      </c>
+      <c r="AH154" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1099001</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Dream Interpretation</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>夢の解析</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>꿈의 해석</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>梦的解析</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>夢的解析</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Hecate</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>ヘカテー</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>헤카테</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr">
+        <is>
           <t>Arsenopyrite Concentrate</t>
         </is>
       </c>
-      <c r="X152" t="inlineStr">
+      <c r="X155" t="inlineStr">
         <is>
           <t>毒砂の精鉱</t>
         </is>
       </c>
-      <c r="Y152" t="inlineStr">
+      <c r="Y155" t="inlineStr">
         <is>
           <t>정교한 독모래 광석</t>
         </is>
       </c>
-      <c r="Z152" t="inlineStr">
+      <c r="Z155" t="inlineStr">
         <is>
           <t>毒砂精矿</t>
         </is>
       </c>
-      <c r="AA152" t="inlineStr">
+      <c r="AA155" t="inlineStr">
         <is>
           <t>毒砂精礦</t>
         </is>
       </c>
-      <c r="AB152" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AC152" t="inlineStr">
+      <c r="AB155" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC155" t="inlineStr">
         <is>
           <t>Arsenopyrite Raw Ore</t>
         </is>
       </c>
-      <c r="AD152" t="inlineStr">
+      <c r="AD155" t="inlineStr">
         <is>
           <t>毒砂の原鉱</t>
         </is>
       </c>
-      <c r="AE152" t="inlineStr">
+      <c r="AE155" t="inlineStr">
         <is>
           <t>거친 독모래 광석</t>
         </is>
       </c>
-      <c r="AF152" t="inlineStr">
+      <c r="AF155" t="inlineStr">
         <is>
           <t>毒砂粗矿</t>
         </is>
       </c>
-      <c r="AG152" t="inlineStr">
+      <c r="AG155" t="inlineStr">
         <is>
           <t>毒砂粗礦</t>
         </is>
       </c>
-      <c r="AH152" t="inlineStr">
+      <c r="AH155" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>

--- a/Sinner_Stuff/dispatch.xlsx
+++ b/Sinner_Stuff/dispatch.xlsx
@@ -24444,86 +24444,86 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1099001</v>
+        <v>1048001</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Dream Interpretation</t>
+          <t>Dessert Tasting</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>夢の解析</t>
+          <t>スイーツ試食会</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>꿈의 해석</t>
+          <t>디저트 시식</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>梦的解析</t>
+          <t>甜品试吃</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>夢的解析</t>
+          <t>甜點試吃</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+          <t>A famous dessert parlor in Eastside faces backlash over their new seasonal item containing too much sugar. To salvage their reputation, the shop is organizing a tasting event. A certain Sinner with a passion for exotic Outland desserts has volunteered to participate.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+          <t>ニューシティの有名なスイーツ店が今シーズンの新作を発表した。しかし、致死量レベルの砂糖が含まれていると批判され、評判が急落している。現状を打開するため、店は試食イベントを開催することにした。そのイベントに、エキゾチックなスイーツを好むコンビクトが自ら応募した。</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+          <t>신성의 유명 디저트 가게에서 시즌 신제품을 출시했는데, 해당 제품에 치사량의 설탕이 들어가 큰 비판을 받았다. 이를 수습하기 위해 디저트 가게는 시식 이벤트를 진행하기로 했으며, 이에 외부 도시의 이색적인 디저트에 관심이 많은 수감자가 자발적으로 참가 신청을 했다.</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+          <t>新城某知名甜品店推出当季新品，因加入致死量白砂糖而广受诟病，为挽回风评，甜品店决定举办试吃活动，一位对外邦异域风情甜品情有独钟的禁闭者主动报名。</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+          <t>新城某知名甜點店推出當季新品，因加入致死量砂糖而廣受詬病，為挽回風評，甜點店決定舉辦試吃活動，一位對外邦異域風情甜點情有獨鍾的禁閉者主動報名。</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Hecate</t>
+          <t>Vautour Bleu</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>ヘカテー</t>
+          <t>ヴァトゥール</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>헤카테</t>
+          <t>보투르.블루</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>蓝鹫</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>藍鷲</t>
         </is>
       </c>
       <c r="R155" t="inlineStr"/>
@@ -24533,60 +24533,1000 @@
       <c r="V155" t="inlineStr"/>
       <c r="W155" t="inlineStr">
         <is>
+          <t>Infected Tentacle</t>
+        </is>
+      </c>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>感染された触手</t>
+        </is>
+      </c>
+      <c r="Y155" t="inlineStr">
+        <is>
+          <t>감염된 다리</t>
+        </is>
+      </c>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>感染腕足</t>
+        </is>
+      </c>
+      <c r="AA155" t="inlineStr">
+        <is>
+          <t>感染腕足</t>
+        </is>
+      </c>
+      <c r="AB155" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC155" t="inlineStr">
+        <is>
+          <t>Organic Tentacle</t>
+        </is>
+      </c>
+      <c r="AD155" t="inlineStr">
+        <is>
+          <t>原生触手</t>
+        </is>
+      </c>
+      <c r="AE155" t="inlineStr">
+        <is>
+          <t>원시적 다리</t>
+        </is>
+      </c>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>原生腕足</t>
+        </is>
+      </c>
+      <c r="AG155" t="inlineStr">
+        <is>
+          <t>原生腕足</t>
+        </is>
+      </c>
+      <c r="AH155" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1048002</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Impersonation Contest</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>モノマネ大会</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>성대모사 대회</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>模仿大赛</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>模仿大賽</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>According to credible leads, an online scammer long sought by the Public Security Bureau will make an appearance at an upcoming speech impersonation contest. A Sinner skilled in imitating speech patterns is required to enter the finals and gather evidence.</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>信頼できる情報によると、治安局が長らく追跡していたネット詐欺師が、まもなく開催される「口調モノマネ大会」に出場するという。そこで、他人の口調を真似るのが得意なコンビクトを大会の決勝進出者として潜伏させ、手がかりを集める必要がある。</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>치안국에서 오랫동안 추적해 온 인터넷 사기범이 성대모사 대회에 나타날 예정이라는 믿을 만한 제보가 들어왔다. 단서를 수집하기 위해 다른 사람의 말투를 잘 흉내 내는 수감자를 최종 결선에 투입해야 한다.</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>据可靠线报表示，治安局追查已久的网络诈骗犯即将真人现身语言模仿大赛，需派出擅长模拟他人口吻的禁闭者打入决赛圈搜集线索。</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>據可靠線報表示，治安局追查已久的網路詐騙犯即將真人現身語言模仿大賽，需派出擅長模擬他人口吻的禁閉者打入決賽搜集線索。</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Dove</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>ドーヴ</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>도브</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>多芙</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>多芙</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>Organic Tentacle</t>
+        </is>
+      </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>原生触手</t>
+        </is>
+      </c>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>원시적 다리</t>
+        </is>
+      </c>
+      <c r="Z156" t="inlineStr">
+        <is>
+          <t>原生腕足</t>
+        </is>
+      </c>
+      <c r="AA156" t="inlineStr">
+        <is>
+          <t>原生腕足</t>
+        </is>
+      </c>
+      <c r="AB156" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC156" t="inlineStr">
+        <is>
+          <t>Shriveled Tentacle</t>
+        </is>
+      </c>
+      <c r="AD156" t="inlineStr">
+        <is>
+          <t>枯れた触手</t>
+        </is>
+      </c>
+      <c r="AE156" t="inlineStr">
+        <is>
+          <t>메마른 다리</t>
+        </is>
+      </c>
+      <c r="AF156" t="inlineStr">
+        <is>
+          <t>枯萎腕足</t>
+        </is>
+      </c>
+      <c r="AG156" t="inlineStr">
+        <is>
+          <t>枯萎腕足</t>
+        </is>
+      </c>
+      <c r="AH156" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1048003</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Forged Communication</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>偽装通信</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>조작된 통신</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>伪装通信</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>偽裝通訊</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>A criminal group member was injured and became unconscious during a recent arrest operation by the Public Security Bureau. With the contact's letter lost, an expert in document forgery is urgently required for the mission.</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>最近、ある犯罪グループのメンバーが治安局に逮捕される際、事故で負傷し、意識を失い、犯罪グループとの接触用の手紙を紛失したという。手紙の偽造が得意な人物が急ぎ必要だ。</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>최근 한 범죄 조직의 구성원이 치안국에 체포되는 과정에서 부상을 입고 의식을 잃어, 접선용 편지를 분실했다. 편지를 위조할 수 있는 사람을 즉시 작전에 투입시켜야 한다.</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>近日，某犯罪集团成员在被治安局抓捕的过程中意外受伤，失去意识，因接头信件丢失，急需擅长伪造信物的人员参与行动。</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>近日，某犯罪集團成員在被治安局抓捕的過程中意外受傷，失去意識，因接頭人信件遺失，急需擅長偽造信物的人員參與行動。</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>McQueen</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>マックイーン</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>맥퀸</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>麦昆</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>麥昆</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Dove</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>ドーヴ</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>도브</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>多芙</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>多芙</t>
+        </is>
+      </c>
+      <c r="W157" t="inlineStr">
+        <is>
+          <t>Organic Tentacle</t>
+        </is>
+      </c>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>原生触手</t>
+        </is>
+      </c>
+      <c r="Y157" t="inlineStr">
+        <is>
+          <t>원시적 다리</t>
+        </is>
+      </c>
+      <c r="Z157" t="inlineStr">
+        <is>
+          <t>原生腕足</t>
+        </is>
+      </c>
+      <c r="AA157" t="inlineStr">
+        <is>
+          <t>原生腕足</t>
+        </is>
+      </c>
+      <c r="AB157" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC157" t="inlineStr">
+        <is>
+          <t>Organic Tentacle</t>
+        </is>
+      </c>
+      <c r="AD157" t="inlineStr">
+        <is>
+          <t>原生触手</t>
+        </is>
+      </c>
+      <c r="AE157" t="inlineStr">
+        <is>
+          <t>원시적 다리</t>
+        </is>
+      </c>
+      <c r="AF157" t="inlineStr">
+        <is>
+          <t>原生腕足</t>
+        </is>
+      </c>
+      <c r="AG157" t="inlineStr">
+        <is>
+          <t>原生腕足</t>
+        </is>
+      </c>
+      <c r="AH157" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1049001</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Like-Minded Advisor</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>同類捜査</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>동족 추적</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>同类追溯</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>同類追溯</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Recently, multiple major Eastside sites have been under frequent attack. Rumor has it that these are the doing of an eccentric hacker. Cybersec is urgently looking for a Sinner with similarly peculiar thought patterns to help predict the hacker's next move.</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>最近、ニューシティの主要ネットワークが頻繁に攻撃を受けている。噂によると、これは思考回路が常人と異なるハッカーによる気まぐれな犯行らしい。サイバーセキュリティー部門では、次の行動を予測するため、似たような思考回路を持つコンビクトの協力を至急求めている。</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>최근 신성의 주요 네트워크가 잇따른 공격에 시달리고 있는데, 특이한 사고방식을 가진 해커의 소행이라는 소문이 돌았다. 사이버 보안 센터는 해커의 다음 행보를 예측하기 위해 비슷한 사고방식을 가진 수감자의 도움이 절실했다.</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>近日新城关键网络频遭攻击，传言称此为一名思维回路异于常人的黑客随性所为，网安部门急需一名思维方式与其近似的禁闭者帮助预测其下一步动向。</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>近日新城關鍵網路頻遭攻擊，傳言稱此為一名思維異於常人的駭客隨性所為，網安部門急需一名思維方式與其近似的禁閉者幫助預測其下一步動向。</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Pylgia</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>パルギア</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>필기아</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>派尔琪雅</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>派爾琪雅</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr">
+        <is>
+          <t>Infected Bone Shard</t>
+        </is>
+      </c>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>感染された骨</t>
+        </is>
+      </c>
+      <c r="Y158" t="inlineStr">
+        <is>
+          <t>감염된 뼈 조각</t>
+        </is>
+      </c>
+      <c r="Z158" t="inlineStr">
+        <is>
+          <t>感染骨片</t>
+        </is>
+      </c>
+      <c r="AA158" t="inlineStr">
+        <is>
+          <t>感染骨片</t>
+        </is>
+      </c>
+      <c r="AB158" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC158" t="inlineStr">
+        <is>
+          <t>Organic Bone Shard</t>
+        </is>
+      </c>
+      <c r="AD158" t="inlineStr">
+        <is>
+          <t>原生の骨</t>
+        </is>
+      </c>
+      <c r="AE158" t="inlineStr">
+        <is>
+          <t>원시적 뼈 조각</t>
+        </is>
+      </c>
+      <c r="AF158" t="inlineStr">
+        <is>
+          <t>原生骨片</t>
+        </is>
+      </c>
+      <c r="AG158" t="inlineStr">
+        <is>
+          <t>原生骨片</t>
+        </is>
+      </c>
+      <c r="AH158" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1049002</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Paper Plane Contest</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>紙飛行機大会</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>종이비행기 대회</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>纸飞机大赛</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>紙飛機大賽</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>The Eastside Paper Plane Society has finally raised enough funds to host a Paper Plane Contest. Upon hearing this news, a certain Sinner is immediately determined to participate in it.</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>ニューシティ紙飛行機研究協会は、ようやく十分な資金を集め、紙飛行機大会を開催することを決定した。この話を聞いたあるコンビクトは、すぐに参加を強く希望した。</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>신성 종이비행기 접기 및 연구 협회가 최근 마침내 충분한 자금을 모아 종이비행기 대회를 개최하기로 했다. 한 수감자는 이 소식을 접하자마자 강경히 참가 의사를 밝혔다.</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>新城纸飞机折叠与研究协会近日终于筹集足够资金，决定举办花式纸飞机大赛，某禁闭者听说后立刻强烈要求参与。</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>新城紙飛機折疊與研究協會近日終於籌集足夠資金，決定舉辦花式紙飛機大賽，某禁閉者聽說後立刻強烈要求參與。</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Zephyr</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>ゼファー</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>제피르</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>泽斐尔</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>澤斐爾</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr">
+        <is>
+          <t>Organic Bone Shard</t>
+        </is>
+      </c>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>原生の骨</t>
+        </is>
+      </c>
+      <c r="Y159" t="inlineStr">
+        <is>
+          <t>원시적 뼈 조각</t>
+        </is>
+      </c>
+      <c r="Z159" t="inlineStr">
+        <is>
+          <t>原生骨片</t>
+        </is>
+      </c>
+      <c r="AA159" t="inlineStr">
+        <is>
+          <t>原生骨片</t>
+        </is>
+      </c>
+      <c r="AB159" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC159" t="inlineStr">
+        <is>
+          <t>Broken Bone Shard</t>
+        </is>
+      </c>
+      <c r="AD159" t="inlineStr">
+        <is>
+          <t>破損した骨</t>
+        </is>
+      </c>
+      <c r="AE159" t="inlineStr">
+        <is>
+          <t>파손된 뼈 조각</t>
+        </is>
+      </c>
+      <c r="AF159" t="inlineStr">
+        <is>
+          <t>破损骨片</t>
+        </is>
+      </c>
+      <c r="AG159" t="inlineStr">
+        <is>
+          <t>破損骨片</t>
+        </is>
+      </c>
+      <c r="AH159" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1049003</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Required Connections</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>人脈の需要</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>인맥의 중요성</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>人脉需求</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>人脈需求</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>The Public Security Bureau has received intelligence that a criminal organization is recruiting impoverished workers from Eastside and West District to smuggle contraband into DisCity. A Sinner with extensive connections among these communities is required to assist in gathering clues.</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>とある犯罪グループが日雇い労働を名目にニューシティと西区の貧困層を雇い、ディスへ違法品を分散輸送していると、治安局に情報提供があった。こうした層に人脈を持つコンビクトに協力を要請し、詳細な情報収集を行う必要がある。</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>치안국은 한 범죄 조직이 아르바이트를 핑계로 신성과 서구의 서민을 고용하여 디스로 금지 물품을 분산 운송한다는 첩보를 입수했다. 관련 분야에 인맥이 넓은 수감자를 통해 서둘러 자세한 정보를 파악해야 한다.</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>治安局收到线报，一犯罪团伙以零工为借口，雇佣新城和西区的底层群众分散运输违禁品进入狄斯，现急需在此类人群中人脉较广的禁闭者打探详情。</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>治安局收到線報，一犯罪集團以零工為藉口，雇傭新城和西區的底層群眾分散運輸違禁品進入狄斯，現急需在此類人群中人脈較廣的禁閉者打探詳情。</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Zephyr</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>ゼファー</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>제피르</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>泽斐尔</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>澤斐爾</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Dudu</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>トト</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>토토</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>嘟嘟</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>嘟嘟</t>
+        </is>
+      </c>
+      <c r="W160" t="inlineStr">
+        <is>
+          <t>Organic Bone Shard</t>
+        </is>
+      </c>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>原生の骨</t>
+        </is>
+      </c>
+      <c r="Y160" t="inlineStr">
+        <is>
+          <t>원시적 뼈 조각</t>
+        </is>
+      </c>
+      <c r="Z160" t="inlineStr">
+        <is>
+          <t>原生骨片</t>
+        </is>
+      </c>
+      <c r="AA160" t="inlineStr">
+        <is>
+          <t>原生骨片</t>
+        </is>
+      </c>
+      <c r="AB160" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC160" t="inlineStr">
+        <is>
+          <t>Organic Bone Shard</t>
+        </is>
+      </c>
+      <c r="AD160" t="inlineStr">
+        <is>
+          <t>原生の骨</t>
+        </is>
+      </c>
+      <c r="AE160" t="inlineStr">
+        <is>
+          <t>원시적 뼈 조각</t>
+        </is>
+      </c>
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>原生骨片</t>
+        </is>
+      </c>
+      <c r="AG160" t="inlineStr">
+        <is>
+          <t>原生骨片</t>
+        </is>
+      </c>
+      <c r="AH160" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1099001</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Dream Interpretation</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>夢の解析</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>꿈의 해석</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>梦的解析</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>夢的解析</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Hecate</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>ヘカテー</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>헤카테</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr">
+        <is>
           <t>Arsenopyrite Concentrate</t>
         </is>
       </c>
-      <c r="X155" t="inlineStr">
+      <c r="X161" t="inlineStr">
         <is>
           <t>毒砂の精鉱</t>
         </is>
       </c>
-      <c r="Y155" t="inlineStr">
+      <c r="Y161" t="inlineStr">
         <is>
           <t>정교한 독모래 광석</t>
         </is>
       </c>
-      <c r="Z155" t="inlineStr">
+      <c r="Z161" t="inlineStr">
         <is>
           <t>毒砂精矿</t>
         </is>
       </c>
-      <c r="AA155" t="inlineStr">
+      <c r="AA161" t="inlineStr">
         <is>
           <t>毒砂精礦</t>
         </is>
       </c>
-      <c r="AB155" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AC155" t="inlineStr">
+      <c r="AB161" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC161" t="inlineStr">
         <is>
           <t>Arsenopyrite Raw Ore</t>
         </is>
       </c>
-      <c r="AD155" t="inlineStr">
+      <c r="AD161" t="inlineStr">
         <is>
           <t>毒砂の原鉱</t>
         </is>
       </c>
-      <c r="AE155" t="inlineStr">
+      <c r="AE161" t="inlineStr">
         <is>
           <t>거친 독모래 광석</t>
         </is>
       </c>
-      <c r="AF155" t="inlineStr">
+      <c r="AF161" t="inlineStr">
         <is>
           <t>毒砂粗矿</t>
         </is>
       </c>
-      <c r="AG155" t="inlineStr">
+      <c r="AG161" t="inlineStr">
         <is>
           <t>毒砂粗礦</t>
         </is>
       </c>
-      <c r="AH155" t="inlineStr">
+      <c r="AH161" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>

--- a/Sinner_Stuff/dispatch.xlsx
+++ b/Sinner_Stuff/dispatch.xlsx
@@ -6358,7 +6358,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>In a place like the Underground Arena, money and strong fists will make you invincible.</t>
+          <t>In a place like the Shadow Arena, money and strong fists will make you invincible.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -12573,7 +12573,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ornamental Snake At Large</t>
+          <t>Snake At Large</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Crackdown on Counterfeiting</t>
+          <t>No Counterfeits</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Teaching Materials on Photography</t>
+          <t>Photography Tutorial</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>A Photography Tour of the North</t>
+          <t>Photography Tour</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -15693,7 +15693,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Plastic surgery fiasco</t>
+          <t>Plastic surgery Fiasco</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -18513,7 +18513,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Who Caused It, Who Solves It</t>
+          <t>Who Breaks, Who Fixes</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -20693,7 +20693,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>High School Girl Kidnapping Case</t>
+          <t>High School Kidnapping</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -20863,7 +20863,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Ancient Book Identification</t>
+          <t>Ancient Book</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -21163,7 +21163,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Child Model Disappearance Case</t>
+          <t>Model Disappearance</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -21358,7 +21358,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>The Public Security Bureau has recently received complaints about a suspicious self-claimed master holding seminars titled &lt;i&gt;Communication with the Sun&lt;/i&gt; everywhere. Send a Sinner to investigate.</t>
+          <t>The Public Security Bureau has recently received complaints about a suspicious self-claimed master holding seminars titled *Communication with the Sun* everywhere. Send a Sinner to investigate.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>A new masked dating show by an Eastside entertainment company with the catchphrase &lt;i&gt;Win your heart with one sentence&lt;/i&gt; has become an instant hit. Two Sinners particularly confident in sweet talk volunteer for the next audition.</t>
+          <t>A new masked dating show by an Eastside entertainment company with the catchphrase *Win your heart with one sentence* has become an instant hit. Two Sinners particularly confident in sweet talk volunteer for the next audition.</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -25384,86 +25384,86 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1099001</v>
+        <v>1050001</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Dream Interpretation</t>
+          <t>Etiquette Training</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>夢の解析</t>
+          <t>マナー指導</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>꿈의 해석</t>
+          <t>예절 교육</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>梦的解析</t>
+          <t>礼仪指导</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>夢的解析</t>
+          <t>禮儀指導</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+          <t>Some Bureau staff members need to accompany their superiors to a noble family's banquet in Eastside. To ensure everything goes smooth, they must undergo proper etiquette training beforehand.</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+          <t>管理局の一部の局員は、上層部と共にニューシティのとある貴族のホームパーティーに出席しなければならない。万全を期すため、パーティーに関するマナー指導を受ける必要がある。</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+          <t>관리국의 일부 직원들이 상급자와 함께 신성 어느 귀족 가문의 연회에 참가해야 한다. 조금의 실수도 없도록 연회 관련 예절 교육을 받아야 한다.</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+          <t>管理局部分工作人员需随同上级，参与新城某贵族的家族宴会。为确保万无一失，现需接受赴宴相关的礼仪指导。</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+          <t>管理局部分工作人員需隨同上級，參與新城某貴族的家族宴會。為確保萬無一失，現需接受赴宴相關的禮儀指導。</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>Hecate</t>
+          <t>Jelena</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>ヘカテー</t>
+          <t>イェレナ</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>헤카테</t>
+          <t>옐레나</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>耶莱娜</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>耶萊娜</t>
         </is>
       </c>
       <c r="R161" t="inlineStr"/>
@@ -25473,60 +25473,530 @@
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr">
         <is>
+          <t>Infected Horn</t>
+        </is>
+      </c>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>感染された角</t>
+        </is>
+      </c>
+      <c r="Y161" t="inlineStr">
+        <is>
+          <t>감염된 각질</t>
+        </is>
+      </c>
+      <c r="Z161" t="inlineStr">
+        <is>
+          <t>感染角质</t>
+        </is>
+      </c>
+      <c r="AA161" t="inlineStr">
+        <is>
+          <t>感染角質</t>
+        </is>
+      </c>
+      <c r="AB161" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC161" t="inlineStr">
+        <is>
+          <t>Organic Horn</t>
+        </is>
+      </c>
+      <c r="AD161" t="inlineStr">
+        <is>
+          <t>原生の角</t>
+        </is>
+      </c>
+      <c r="AE161" t="inlineStr">
+        <is>
+          <t>원시적 각질</t>
+        </is>
+      </c>
+      <c r="AF161" t="inlineStr">
+        <is>
+          <t>原生角质</t>
+        </is>
+      </c>
+      <c r="AG161" t="inlineStr">
+        <is>
+          <t>原生角質</t>
+        </is>
+      </c>
+      <c r="AH161" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1050002</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Hot Take</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>時事コメント</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>이슈 평가</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>热点简评</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>熱門話題評論</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>An entertainment company is launching a new current event talk show and is looking for pointed, attention-grabbing write-ups.</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>とあるエンタメ企業が、時事問題を扱うトーク番組を企画しており、注目を集められる鋭い原稿を大量に募集している。</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>어느 엔터테인먼트 회사에서 시사 평론에 관한 새로운 프로그램을 기획하고 있다. 현재 신랄하고 이목을 끌 수 있는 원고를 대량 공모하고 있다.</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>某娱乐公司计划开设一档点评时事的全新节目，目前正在征集大量言辞犀利、吸人眼球的稿件。</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>某娛樂公司計畫開設一檔時事評論的全新節目，目前正在徵集大量言辭犀利、博人眼球的稿件。</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Pine</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>パイン</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>파인</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>派因</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>派因</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr">
+        <is>
+          <t>Organic Horn</t>
+        </is>
+      </c>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>原生の角</t>
+        </is>
+      </c>
+      <c r="Y162" t="inlineStr">
+        <is>
+          <t>원시적 각질</t>
+        </is>
+      </c>
+      <c r="Z162" t="inlineStr">
+        <is>
+          <t>原生角质</t>
+        </is>
+      </c>
+      <c r="AA162" t="inlineStr">
+        <is>
+          <t>原生角質</t>
+        </is>
+      </c>
+      <c r="AB162" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC162" t="inlineStr">
+        <is>
+          <t>Broken Horn</t>
+        </is>
+      </c>
+      <c r="AD162" t="inlineStr">
+        <is>
+          <t>折れた角</t>
+        </is>
+      </c>
+      <c r="AE162" t="inlineStr">
+        <is>
+          <t>갈라진 각질</t>
+        </is>
+      </c>
+      <c r="AF162" t="inlineStr">
+        <is>
+          <t>断裂角质</t>
+        </is>
+      </c>
+      <c r="AG162" t="inlineStr">
+        <is>
+          <t>斷裂角質</t>
+        </is>
+      </c>
+      <c r="AH162" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1050003</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Audio Repair</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>音声修復</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>음성 복구</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>音频修复</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>音檔修復</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Some audio files containing crucial evidence are damaged. At the request of the Public Security Bureau, MBCC is sending a Sinner with expertise in audio recording and electronic devices to help restore them.</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>重要な手がかりを含む音声データが予想外にも破損してしまったため、管理局は治安局の要請を受け、録音作業や電子機器に詳しいコンビクトを派遣し、修復を手伝うことになった。</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>중요 단서가 저장된 음성이 예기치 않게 손상되었다. 관리국은 치안국의 요구에 따라 녹음 절차와 전자기기에 익숙한 수감자를 파견해 복구를 진행해야 한다.</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>存有关键线索的音频意外损坏，管理局应治安局所求，派出熟悉录音流程与电子设备的禁闭者协助修复。</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>存有關鍵線索的音檔意外損壞，管理局應治安局所求，派出熟悉錄音流程與電子設備的禁閉者協助修復。</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Pine</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>パイン</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>파인</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>派因</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>派因</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Rise</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>ライズ</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>라이즈</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>瑞思</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>瑞思</t>
+        </is>
+      </c>
+      <c r="W163" t="inlineStr">
+        <is>
+          <t>Organic Horn</t>
+        </is>
+      </c>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>原生の角</t>
+        </is>
+      </c>
+      <c r="Y163" t="inlineStr">
+        <is>
+          <t>원시적 각질</t>
+        </is>
+      </c>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>原生角质</t>
+        </is>
+      </c>
+      <c r="AA163" t="inlineStr">
+        <is>
+          <t>原生角質</t>
+        </is>
+      </c>
+      <c r="AB163" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC163" t="inlineStr">
+        <is>
+          <t>Organic Horn</t>
+        </is>
+      </c>
+      <c r="AD163" t="inlineStr">
+        <is>
+          <t>原生の角</t>
+        </is>
+      </c>
+      <c r="AE163" t="inlineStr">
+        <is>
+          <t>원시적 각질</t>
+        </is>
+      </c>
+      <c r="AF163" t="inlineStr">
+        <is>
+          <t>原生角质</t>
+        </is>
+      </c>
+      <c r="AG163" t="inlineStr">
+        <is>
+          <t>原生角質</t>
+        </is>
+      </c>
+      <c r="AH163" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1099001</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Dream Interpretation</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>夢の解析</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>꿈의 해석</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>梦的解析</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>夢的解析</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Hecate</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>ヘカテー</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>헤카테</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr">
+        <is>
           <t>Arsenopyrite Concentrate</t>
         </is>
       </c>
-      <c r="X161" t="inlineStr">
+      <c r="X164" t="inlineStr">
         <is>
           <t>毒砂の精鉱</t>
         </is>
       </c>
-      <c r="Y161" t="inlineStr">
+      <c r="Y164" t="inlineStr">
         <is>
           <t>정교한 독모래 광석</t>
         </is>
       </c>
-      <c r="Z161" t="inlineStr">
+      <c r="Z164" t="inlineStr">
         <is>
           <t>毒砂精矿</t>
         </is>
       </c>
-      <c r="AA161" t="inlineStr">
+      <c r="AA164" t="inlineStr">
         <is>
           <t>毒砂精礦</t>
         </is>
       </c>
-      <c r="AB161" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AC161" t="inlineStr">
+      <c r="AB164" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC164" t="inlineStr">
         <is>
           <t>Arsenopyrite Raw Ore</t>
         </is>
       </c>
-      <c r="AD161" t="inlineStr">
+      <c r="AD164" t="inlineStr">
         <is>
           <t>毒砂の原鉱</t>
         </is>
       </c>
-      <c r="AE161" t="inlineStr">
+      <c r="AE164" t="inlineStr">
         <is>
           <t>거친 독모래 광석</t>
         </is>
       </c>
-      <c r="AF161" t="inlineStr">
+      <c r="AF164" t="inlineStr">
         <is>
           <t>毒砂粗矿</t>
         </is>
       </c>
-      <c r="AG161" t="inlineStr">
+      <c r="AG164" t="inlineStr">
         <is>
           <t>毒砂粗礦</t>
         </is>
       </c>
-      <c r="AH161" t="inlineStr">
+      <c r="AH164" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>

--- a/Sinner_Stuff/dispatch.xlsx
+++ b/Sinner_Stuff/dispatch.xlsx
@@ -25854,86 +25854,86 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1099001</v>
+        <v>1051001</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Dream Interpretation</t>
+          <t>Expert at Work</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>夢の解析</t>
+          <t>専門に合った仕事</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>꿈의 해석</t>
+          <t>전문가</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>梦的解析</t>
+          <t>专业对口</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>夢的解析</t>
+          <t>專業對口</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+          <t>The FAC has detected an abnormal rise in M-value at a high school in Eastside. Preliminary investigation reveals that its students have been holding spooky tale-telling séances after school. A request has been submitted to the Bureau to dispatch a suitable Sinner to assist in uncovering the truth.</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+          <t>FACはニューシティのとある高校でM値が異常に上昇していることを検出した。初動調査の結果、その学校の生徒たちの間で、放課後の心霊話会が流行していることが判明した。そのため、真相を探るのに適切なコンビクトを派遣するよう管理局に依頼が来た。</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+          <t>FAC 관측 결과 신성의 모 학교 내에서 M 수치가 비정상적으로 상승했다고 한다. 조사를 진행해 보니 해당 학교의 학생들 사이에서 서로 신비한 이야기를 나누는 방과후 활동이 유행하고 있다고 한다. FAC는 특별히 관리국에 적합한 수감자를 파견해 진상조사를 도와 달라고 요청했다.</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+          <t>FAC监测到新城某高校内M值异常上升，初步调查得知，该校学生间正流行着举办通灵故事会的课后活动，特向管理局申请派一位合适的禁闭者协助探查真相。</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+          <t>FAC監測到新城某高校內M值異常上升，初步調查得知，該校學生間正流行著舉辦通靈故事會的課後活動，特向管理局申請派一位合適的禁閉者協助探查真相。</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Hecate</t>
+          <t>Yugu</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>ヘカテー</t>
+          <t>玉骨</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>헤카테</t>
+          <t>유구</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>玉骨</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>玉骨</t>
         </is>
       </c>
       <c r="R164" t="inlineStr"/>
@@ -25943,60 +25943,680 @@
       <c r="V164" t="inlineStr"/>
       <c r="W164" t="inlineStr">
         <is>
+          <t>Infected Gel</t>
+        </is>
+      </c>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>感染されたゲル</t>
+        </is>
+      </c>
+      <c r="Y164" t="inlineStr">
+        <is>
+          <t>감염된 젤라틴</t>
+        </is>
+      </c>
+      <c r="Z164" t="inlineStr">
+        <is>
+          <t>感染凝胶</t>
+        </is>
+      </c>
+      <c r="AA164" t="inlineStr">
+        <is>
+          <t>感染凝膠</t>
+        </is>
+      </c>
+      <c r="AB164" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC164" t="inlineStr">
+        <is>
+          <t>Organic Gel</t>
+        </is>
+      </c>
+      <c r="AD164" t="inlineStr">
+        <is>
+          <t>原生ゲル</t>
+        </is>
+      </c>
+      <c r="AE164" t="inlineStr">
+        <is>
+          <t>원시적 젤라틴</t>
+        </is>
+      </c>
+      <c r="AF164" t="inlineStr">
+        <is>
+          <t>原生凝胶</t>
+        </is>
+      </c>
+      <c r="AG164" t="inlineStr">
+        <is>
+          <t>原生凝膠</t>
+        </is>
+      </c>
+      <c r="AH164" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1051002</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Heaven-Sent Karma</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>天からの功徳</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>하늘이 내린 공덕</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>天降功德</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>天降功德</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>The season is changing and flu outbreaks have emerged across regions. Recognizing this as a heaven-sent opportunity to accumulate good karma, a certain Sinner has eagerly requested permission to go out and provide free medical services.</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>季節の変わり目に、多くの地域でインフルエンザが流行している。これが天からの功徳であると気付いたあるコンビクトは、外出して無料診察を行うことを強く希望した。</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>환절기가 되면 여러 지역에서 유행성 감기가 발발하는데, 이를 하늘이 내린 공덕으로 여긴 한 수감자가 자선 의료 활동을 할 수 있도록 외출을 허가해달라고 강력히 요구했다.</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>季节交替，多地爆发流感，意识到这是天降的功德，某位禁闭者强烈要求外出义诊。</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>季節交替，多地爆發流感，意識到這是天降的功德，某位禁閉者強烈要求外出義診。</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Wuhuanzi</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>無患子</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>무환자</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>无患子</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>無患子</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr">
+        <is>
+          <t>Organic Gel</t>
+        </is>
+      </c>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>原生ゲル</t>
+        </is>
+      </c>
+      <c r="Y165" t="inlineStr">
+        <is>
+          <t>원시적 젤라틴</t>
+        </is>
+      </c>
+      <c r="Z165" t="inlineStr">
+        <is>
+          <t>原生凝胶</t>
+        </is>
+      </c>
+      <c r="AA165" t="inlineStr">
+        <is>
+          <t>原生凝膠</t>
+        </is>
+      </c>
+      <c r="AB165" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC165" t="inlineStr">
+        <is>
+          <t>Condense Gel</t>
+        </is>
+      </c>
+      <c r="AD165" t="inlineStr">
+        <is>
+          <t>懸濁ゲル</t>
+        </is>
+      </c>
+      <c r="AE165" t="inlineStr">
+        <is>
+          <t>현탁 젤라틴</t>
+        </is>
+      </c>
+      <c r="AF165" t="inlineStr">
+        <is>
+          <t>悬浊凝胶</t>
+        </is>
+      </c>
+      <c r="AG165" t="inlineStr">
+        <is>
+          <t>懸濁凝膠</t>
+        </is>
+      </c>
+      <c r="AH165" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1051003</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Private Bodyguard</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>同行する用心棒</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>수행 경호원</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>随行保镖</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>隨行保鑣</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>SALVA has extended an invitation to discuss traditional Eastian medicine with a certain Sinner. As this Sinner is not a local, company of another Sinner of similar age who is familiar with the route from the Bureau to Syndicate is required.</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>あるコンビクトと東洲の現地医術について学術的な討論をしたいと、彼岸から招待状が届いた。しかし、そのコンビクトはディスの人間ではないため、管理局からシンジケートまでのルートに詳しく、年齢も近いコンビクトに同行してもらう必要がある。</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>구원 병원에서 동방 대륙 본토 의술에 관해 특정 수감자와 함께 학술적인 연구를 진행하길 희망한다며 초대장을 보내왔다. 해당 수감자가 신디케이트 사람이 아니기에 관리국에서 신디케이트로 향하는 길에 익숙한 또래 나이의 수감자를 함께 파견해야 한다.</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>彼岸发来邀请，希望能与某位禁闭者就东洲本土医术进行学术探讨，鉴于该禁闭者非本地人，需要一位熟悉从管理局到辛迪加路线且年龄相仿的禁闭者陪同上路。</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>彼岸發來邀請，希望能與某位禁閉者就東洲本土醫術進行學術探討，鑒於該禁閉者非本地人，需要一位熟悉從管理局到辛迪加路線且年齡相仿的禁閉者陪同上路。</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Wuhuanzi</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>無患子</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>무환자</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>无患子</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>無患子</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Dolly</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>ドリー</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>돌리</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>多莉</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>多莉</t>
+        </is>
+      </c>
+      <c r="W166" t="inlineStr">
+        <is>
+          <t>Organic Gel</t>
+        </is>
+      </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>原生ゲル</t>
+        </is>
+      </c>
+      <c r="Y166" t="inlineStr">
+        <is>
+          <t>원시적 젤라틴</t>
+        </is>
+      </c>
+      <c r="Z166" t="inlineStr">
+        <is>
+          <t>原生凝胶</t>
+        </is>
+      </c>
+      <c r="AA166" t="inlineStr">
+        <is>
+          <t>原生凝膠</t>
+        </is>
+      </c>
+      <c r="AB166" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC166" t="inlineStr">
+        <is>
+          <t>Organic Gel</t>
+        </is>
+      </c>
+      <c r="AD166" t="inlineStr">
+        <is>
+          <t>原生ゲル</t>
+        </is>
+      </c>
+      <c r="AE166" t="inlineStr">
+        <is>
+          <t>원시적 젤라틴</t>
+        </is>
+      </c>
+      <c r="AF166" t="inlineStr">
+        <is>
+          <t>原生凝胶</t>
+        </is>
+      </c>
+      <c r="AG166" t="inlineStr">
+        <is>
+          <t>原生凝膠</t>
+        </is>
+      </c>
+      <c r="AH166" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1051004</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Parade Fairy</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>フロートキャラクター</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>퍼레이드 캐릭터</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>花车仙子</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>花車仙子</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>The Public Security Bureau has received an arson threat targeting an amusement park. The sender is suspected of possessing Mania weapons. A Sinner skilled in creating illusions is urgently required to go undercover as a fairy at the parade and assist the Public Security Bureau in controlling the situation while guiding visitors to safety.</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>治安局に遊園地への放火予告の手紙が届いた。送り主は狂瞳武器を所持している疑いがあり、幻術に長けたコンビクトにフロートに乗ったキャラクターに変装してもらい、治安局と協力して現場を制御し、来場客を安全な場所へ誘導する必要がある。</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>치안국에 놀이공원 방화를 예고하는 편지 한 통이 전달되었다. 편지를 보낸 이는 변이 무기를 소지한 것으로 추측된다. 이에 환술에 능한 수감자를 급히 파견해 퍼레이드 캐릭터로 분장시키고, 치안국을 도와 상황을 통제하며 관광객을 안전한 구역으로 피신시키려 한다.</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>治安局收到一封游乐园纵火预告信，发信人疑似持有狂厄武器，急需一位精通幻术的禁闭者扮成花车仙子，协助治安局控制局面并将游客引导至安全地带。</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>治安局收到一封遊樂園縱火預告信，發信人疑似持有狂厄武器，急需一位精通幻術的禁閉者扮成花車仙子，協助治安局控制局面並將遊客引導至安全地帶。</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Yingying</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>インイン</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>잉잉</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>萦萦</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>縈縈</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr">
+        <is>
+          <t>Infected Cyst</t>
+        </is>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>感染された嚢胞</t>
+        </is>
+      </c>
+      <c r="Y167" t="inlineStr">
+        <is>
+          <t>감염된 낭포</t>
+        </is>
+      </c>
+      <c r="Z167" t="inlineStr">
+        <is>
+          <t>感染囊胞</t>
+        </is>
+      </c>
+      <c r="AA167" t="inlineStr">
+        <is>
+          <t>感染囊胞</t>
+        </is>
+      </c>
+      <c r="AB167" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC167" t="inlineStr">
+        <is>
+          <t>Organic Cyst</t>
+        </is>
+      </c>
+      <c r="AD167" t="inlineStr">
+        <is>
+          <t>原生嚢胞</t>
+        </is>
+      </c>
+      <c r="AE167" t="inlineStr">
+        <is>
+          <t>원시적 낭포</t>
+        </is>
+      </c>
+      <c r="AF167" t="inlineStr">
+        <is>
+          <t>原生囊胞</t>
+        </is>
+      </c>
+      <c r="AG167" t="inlineStr">
+        <is>
+          <t>原生囊胞</t>
+        </is>
+      </c>
+      <c r="AH167" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1099001</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Dream Interpretation</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>夢の解析</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>꿈의 해석</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>梦的解析</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>夢的解析</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Hecate</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>ヘカテー</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>헤카테</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr">
+        <is>
           <t>Arsenopyrite Concentrate</t>
         </is>
       </c>
-      <c r="X164" t="inlineStr">
+      <c r="X168" t="inlineStr">
         <is>
           <t>毒砂の精鉱</t>
         </is>
       </c>
-      <c r="Y164" t="inlineStr">
+      <c r="Y168" t="inlineStr">
         <is>
           <t>정교한 독모래 광석</t>
         </is>
       </c>
-      <c r="Z164" t="inlineStr">
+      <c r="Z168" t="inlineStr">
         <is>
           <t>毒砂精矿</t>
         </is>
       </c>
-      <c r="AA164" t="inlineStr">
+      <c r="AA168" t="inlineStr">
         <is>
           <t>毒砂精礦</t>
         </is>
       </c>
-      <c r="AB164" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AC164" t="inlineStr">
+      <c r="AB168" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC168" t="inlineStr">
         <is>
           <t>Arsenopyrite Raw Ore</t>
         </is>
       </c>
-      <c r="AD164" t="inlineStr">
+      <c r="AD168" t="inlineStr">
         <is>
           <t>毒砂の原鉱</t>
         </is>
       </c>
-      <c r="AE164" t="inlineStr">
+      <c r="AE168" t="inlineStr">
         <is>
           <t>거친 독모래 광석</t>
         </is>
       </c>
-      <c r="AF164" t="inlineStr">
+      <c r="AF168" t="inlineStr">
         <is>
           <t>毒砂粗矿</t>
         </is>
       </c>
-      <c r="AG164" t="inlineStr">
+      <c r="AG168" t="inlineStr">
         <is>
           <t>毒砂粗礦</t>
         </is>
       </c>
-      <c r="AH164" t="inlineStr">
+      <c r="AH168" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>

--- a/Sinner_Stuff/dispatch.xlsx
+++ b/Sinner_Stuff/dispatch.xlsx
@@ -618,7 +618,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>白记老字号</t>
+          <t>白記老字號</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>一位老主顾在白记下了单，为了保住白记这块招牌，必须把这个单给结了！</t>
+          <t>一位老客戶在白記下了單，為了保住白記這塊招牌，必須把這個單盡快完成！</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>蔻蔻</t>
+          <t>K.K.</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>冰石粗矿</t>
+          <t>冰石粗礦</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>冰石粗矿</t>
+          <t>冰石粗礦</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>安保培训</t>
+          <t>保全培訓</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>FAC其他部门希望前“蛇眼”安保主管能够对他们进行一些安保领域的培训。</t>
+          <t>FAC其他部門希望前「蛇眼」安保主管能夠對他們進行一些安保領域的培訓。</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>冰石粗矿</t>
+          <t>冰石粗礦</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>一桩秘密交易将在变装舞会上进行，需要身份相符的人潜入阻止。</t>
+          <t>一樁秘密交易將在變裝舞會上進行，需要身份相符的人潛入阻止。</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>绝地追踪</t>
+          <t>絕地追蹤</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>记录在机密档案中的恶徒再度出现，我们已经锁定了活动路径。</t>
+          <t>記錄在機密檔案中的惡徒再度出現，我們已經鎖定了活動路徑。</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>无主之地</t>
+          <t>無主之地</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>辛迪加的混混们最近有些不安分，或许有些人可以混进去找找原因。</t>
+          <t>辛迪加的混混們最近有些不安分，或許有些人可以混進去找找原因。</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>暮辉石粗矿</t>
+          <t>暮輝石粗礦</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>暮辉石粗矿</t>
+          <t>暮輝石粗礦</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>大胃王比赛的赞助商拖欠了奖励，经过调查发现这和一笔异常的现金流有关。</t>
+          <t>大胃王比賽的贊助商拖欠了獎勵，經過調查發現這和一筆異常的現金流有關。</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>暮辉石粗矿</t>
+          <t>暮輝石粗礦</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>锈河异常</t>
+          <t>鏽河異常</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>锈河地带出现了一些异常现象，需要专业人士前去处理。</t>
+          <t>鏽河地帶出現了一些異常現象，需要專業人士前去處理。</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>溫蒂</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>辛迪加最近流行了一种新式武器，对此辛迪加的霸主、军团的首领决定亲自前往探查。</t>
+          <t>辛迪加最近流行了一種新式武器，對此辛迪加的霸主、軍團的首領決定親自前往調查。</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>卓娅</t>
+          <t>卓婭</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>暮辉晶</t>
+          <t>暮輝晶</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>资料来源</t>
+          <t>資料來源</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>奎恩传媒一家工作室想要以禁闭者为原型创作一部动漫，某吹牛大王自愿前去协助。</t>
+          <t>奎恩傳媒一家工作室想要以禁閉者為原型創作一部動漫，某吹牛大王自願前去協助。</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>艾米潘</t>
+          <t>EMP</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>红石粗矿</t>
+          <t>紅石粗礦</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>红石粗矿</t>
+          <t>紅石粗礦</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>轰轰轰</t>
+          <t>轟轟轟</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>辛迪加发生了连环殉爆事件，需要一位爆炸物专家来调查这次事件。</t>
+          <t>辛迪加發生了連環爆炸事件，需要一位爆炸物專家來調查這次事件。</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>红石粗矿</t>
+          <t>紅石粗礦</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>管理局申请了一个嘉年华摊位作为情报据点，提供魔术表演、娱乐游戏等多项服务。</t>
+          <t>管理局申請了一個嘉年華攤位作為情報據點，提供魔術表演、娛樂遊戲等多項服務。</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>内海监测</t>
+          <t>內海監測</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>近期内海污染程度大幅波动，内海特区向我们申请支援。</t>
+          <t>近期內海汙染程度大幅波動，內海特區向我們申請支援。</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>诺克斯</t>
+          <t>NOX</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>机械舞</t>
+          <t>機械舞</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>有人宣称要在舞蹈巡演中刺杀表演者，为了保护她，我们准备使用替身战术。</t>
+          <t>有人宣稱要在舞蹈巡演中刺殺表演者，為了保護她，我們準備使用替身戰術。</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>泪石粗矿</t>
+          <t>淚石粗礦</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>泪石粗矿</t>
+          <t>淚石粗礦</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>城市阴影</t>
+          <t>城市陰影</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>狄斯城有很多黑暗的角落，尤其是在上庭。特别注意，在该地开展工作的人员需要正当身份。</t>
+          <t>狄斯城有很多黑暗的角落，尤其是在上庭。特別注意，在該地開展工作的人員需要正當身份。</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>泪石粗矿</t>
+          <t>淚石粗礦</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>谋杀之谜</t>
+          <t>謀殺之謎</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>安插在某秘密组织的线人意外被害，该组织也从狄斯城消失，为了查清这背后的真相，管理局需要两个关键人员。</t>
+          <t>安插在某秘密組織的線人意外被害，該組織也從狄斯城消失，為了查清這背後的真相，管理局需要兩個關鍵人員。</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>极速飞车</t>
+          <t>極速飛車</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>涡轮科技研发的一辆超高速摩托被飞车党偷走，经过层层转包，这份寻物委托最后到了白记实业头上。</t>
+          <t>渦輪科技研發的一輛超高速摩托被飛車黨偷走，經過層層轉手，這份尋物委託最後到了白記實業頭上。</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>泪晶</t>
+          <t>淚晶</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>辛迪加发生多起失火事故，事故地点相隔较远，管理局想要知道这其中是否有所联系。</t>
+          <t>辛迪加發生多起火災事故，事故地點相隔較遠，管理局想要知道這其中是否有所關聯。</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>毒砂粗矿</t>
+          <t>毒砂粗礦</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>毒砂粗矿</t>
+          <t>毒砂粗礦</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>固定路线？</t>
+          <t>固定路線？</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>接新城治安局邀请，特派禁闭者执行常规治安巡逻任务，考虑到是固定路线……</t>
+          <t>接新城治安局邀請，特派禁閉者執行常規治安巡邏任務，考慮到是固定路線……</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>艾瑞尔</t>
+          <t>艾瑞爾</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>毒砂粗矿</t>
+          <t>毒砂粗礦</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>斯宾塞家族</t>
+          <t>斯賓塞家族</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>关于该家族的近期丑闻，管理局建议派出相关人员处理，且为保证执行效果，另需有力人士提供支持。</t>
+          <t>關於該家族的近期醜聞，管理局建議派出相關人員處理，且為保證執行效果，另需有力人士提供支持。</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>艾瑞尔</t>
+          <t>艾瑞爾</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -3528,7 +3528,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>技术支持</t>
+          <t>技術支援</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>上级机构的研究院最近遇到了几处技术难题。考虑到其专业难度，合适的人选似乎只有一个了。</t>
+          <t>上級機構的研究院最近遇到了一些技術難題。考慮到其專業難度，合適的人選似乎只有一個了。</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>近期锈河边的拾荒者组织出现了谋杀案件，需要一个熟悉那里环境的人前去调查。</t>
+          <t>近期鏽河邊的拾荒者組織出現了謀殺案件，需要一個熟悉那裡環境的人前去調查。</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -3798,7 +3798,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>异方晶</t>
+          <t>異方晶</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>异方晶</t>
+          <t>異方晶</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>图书管理</t>
+          <t>圖書管理</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>图书馆的一些旧书丢失，管理局怀疑这并非单纯的管理失误，而是另有玄机。</t>
+          <t>圖書館的一些舊書丟失，管理局懷疑這並非單純的管理失誤，而是另有玄機。</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>异方晶</t>
+          <t>異方晶</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>异方晶</t>
+          <t>異方晶</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>书籍采购</t>
+          <t>書籍採購</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>管理局的书籍采购工作正式开始，总书单长达十九页，找到合适的人选并不容易。</t>
+          <t>管理局的書籍採購工作正式開始，總書單長達十九頁，找到合適的人選並不容易。</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>异方晶</t>
+          <t>異方晶</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>异方晶</t>
+          <t>異方晶</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>指导工作</t>
+          <t>指導工作</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>管理局需要对近期的派遣工作进行一次梳理总结，并对未来的工作作出展望，你的某位上级正是协助你的不二人选。</t>
+          <t>管理局需要對近期的派遣工作進行一次彙整總結，並對未來的工作有何目標，你的某位上級正是協助你的不二人選。</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>兰利</t>
+          <t>蘭利</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>异方晶</t>
+          <t>異方晶</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>异方晶</t>
+          <t>異方晶</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>特约评论</t>
+          <t>特約評論</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>某艺术品杂志邀请知名批评家为他们写一篇特约供稿，报酬丰厚。</t>
+          <t>某藝術品雜誌邀請知名評論家為他們寫一篇特約專欄，報酬豐厚。</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>丽莎</t>
+          <t>麗莎</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>曲铜粗矿</t>
+          <t>曲銅粗礦</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>曲铜粗矿</t>
+          <t>曲銅粗礦</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>食物品鉴</t>
+          <t>食物品鑑</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>某食品工厂推出了多款新品，但一直销量不佳。他们需要更加专业的美食评鉴者给予意见。</t>
+          <t>某食品工廠推出了多款新品，但一直銷量不佳。他們需要更加專業的美食評鑑者給予意見。</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>曲铜粗矿</t>
+          <t>曲銅粗礦</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>娱乐新闻</t>
+          <t>娛樂新聞</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>狗仔编造了一些禁闭者偶像的娱乐新闻，这种行为必须得到制止。</t>
+          <t>狗仔編造了一些禁閉者偶像的娛樂新聞，這種行為必須得到制止。</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>露薇娅·蕾</t>
+          <t>露薇婭·蕾</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>重大决策</t>
+          <t>重大決策</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>虽然可以远程控制，但在出现重大事件时，这些产业仍然需要决策者亲自到场。</t>
+          <t>雖然可以遠端控制，但在出現重大事件時，這些產業仍然需要決策者親自到場。</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>曲铜晶</t>
+          <t>曲銅晶</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>为提升赫斯村，以及一众周边卫星城的农业开采效率，他们需要更专业的设备与人才</t>
+          <t>為提升赫斯村，以及諸多周圍衛星城市的農業開採效率，他們需要更專業的設備與人才。</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>审查邀请</t>
+          <t>審查邀請</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>在遇到难审的犯人时，新城治安局总会向管理局发来协查通告。</t>
+          <t>在遇到難審的犯人時，新城治安局總會向管理局發來協查通告。</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>虫群暴动</t>
+          <t>蟲群暴動</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>白沙之海的沙虫群出现了暴动，我们需要一个老练的猎人来处理，如果能弄清楚这些虫子的暴动原因就更好了。</t>
+          <t>白砂之海的沙蟲群出現了暴動，我們需要一個老練的獵人來處理，如果能弄清楚這些蟲子的暴動原因就更好了。</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>近期内海的死役变得极为活跃，特区已开辟无人的管制区域供特派专员使用。</t>
+          <t>近期內海的死役變得極為活躍，特區已開闢無人的管制區域供特派專員使用。</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -5478,7 +5478,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>哈梅尔</t>
+          <t>哈梅爾</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>传说料理</t>
+          <t>傳說料理</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>分子料理早已成为了狄斯城老饕间的都市传说，不过这个传说，偶尔还会再现。</t>
+          <t>分子料理早已成為了狄斯城老饕間的都市傳說，不過這個傳說，偶爾還會再現。</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>开尔文</t>
+          <t>開爾文</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>破损骨片</t>
+          <t>破損骨片</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>破损骨片</t>
+          <t>破損骨片</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>医院疑云</t>
+          <t>醫院疑雲</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>班彦医学院的仓库遭人破坏，大量药品及血样被窃，需要立刻追踪线索。</t>
+          <t>班彥醫學院的倉庫遭人破壞，大量藥品及血樣被竊，需要立刻追蹤線索。</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>维多利亚</t>
+          <t>維多利亞</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>破损骨片</t>
+          <t>破損骨片</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>上庭旧宅</t>
+          <t>上庭舊宅</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>上庭一处尘封的旧宅近日受到盗窃，管理局将派出相关人员秘密潜入，了解具体情况。</t>
+          <t>上庭一處塵封的舊宅近日遭到盜竊，管理局將派出相關人員秘密潛入，了解具體情況。</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -5928,7 +5928,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>维多利亚</t>
+          <t>維多利亞</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -6048,7 +6048,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>紧急组队</t>
+          <t>緊急組隊</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>新城某知名乐队吉他手因手臂骨折而不得不缺席演唱会，主办方希望能找到一位够格的替补。</t>
+          <t>新城某知名樂隊吉他手因手臂骨折而不得不缺席演唱會，主辦方希望能找到一位勝任的替補。</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>琼</t>
+          <t>瓊</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>断裂角质</t>
+          <t>斷裂角質</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>断裂角质</t>
+          <t>斷裂角質</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>资金去向</t>
+          <t>資金去向</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6223,7 +6223,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>近期新城动物园收到一笔神秘捐赠，但最后该笔资金却落入私人账户。对于这种情况，匿名捐赠者非常生气，希望能亲自调查。</t>
+          <t>近期新城動物園收到一筆神秘捐贈，但最後該筆資金卻落入私人帳戶。對於這種情況，匿名捐贈者非常生氣，希望能親自調查。</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>切尔西伯爵</t>
+          <t>切爾西伯爵</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>断裂角质</t>
+          <t>斷裂角質</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
@@ -6348,7 +6348,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>财富与力量</t>
+          <t>財富與力量</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>在地下竞技场这种地方，有钱有拳头就能所向无敌。</t>
+          <t>在地下競技場這種地方，有錢有拳頭就能所向無敵。</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>切尔西伯爵</t>
+          <t>切爾西伯爵</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -6478,7 +6478,7 @@
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>地下摇滚</t>
+          <t>地下搖滾</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>有人借用地下摇滚的场子售卖违禁物品，几乎已经形成了完整产业链，亟需有人前去调查。</t>
+          <t>有人借用地下搖滾的場子販售違禁物品，幾乎已經形成了完整產業鏈，亟需有人前去調查。</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>琼</t>
+          <t>瓊</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>悬浊凝胶</t>
+          <t>懸濁凝膠</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>悬浊凝胶</t>
+          <t>懸濁凝膠</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>辛迪加有人借用送葬人的名义为非作歹，这已经点燃了某位送葬人的怒火。</t>
+          <t>辛迪加有人借用送葬人的名義為非作歹，這已經點燃了某位送葬人的怒火。</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -6718,7 +6718,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>溫蒂</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -6778,7 +6778,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>悬浊凝胶</t>
+          <t>懸濁凝膠</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>狂气</t>
+          <t>狂氣</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -6843,7 +6843,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>内海边缘出现了大规模的死役群，这需要一些足够疯狂的组合来压制消灭。</t>
+          <t>內海邊緣出現了大規模的死役群，這需要一些足夠瘋狂的組合來壓制消滅。</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>温蒂</t>
+          <t>溫蒂</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>产品代言</t>
+          <t>產品代言</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>某新概念厨具厂商希望找到一位足够出名的大厨来代言自己的产品。</t>
+          <t>某新概念廚具廠商希望找到一位足夠出名的大廚來代言自己的產品。</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>开尔文</t>
+          <t>開爾文</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>鞘翅残片</t>
+          <t>鞘翅殘片</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -7098,7 +7098,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>鞘翅残片</t>
+          <t>鞘翅殘片</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>天生特工</t>
+          <t>天生特務</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>某些密级较高的监视任务对变装易容的技术要求非常高。</t>
+          <t>某些機密較高的監視任務對變裝易容的技術要求非常高。</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>鞘翅残片</t>
+          <t>鞘翅殘片</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>侠盗出场！</t>
+          <t>俠盜出場！</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -7313,7 +7313,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>某知名侠盗团体出现了模仿犯！对于某些人来说，这种情况完全无法容忍。</t>
+          <t>某知名俠盜團體出現了模仿犯！對於某些人來說，這種情況完全無法容忍。</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>并非野草</t>
+          <t>並非野草</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>管理局的绿地里种出了一棵可食用的沙漠植物，或许可以在砂海上的实验田里试种一下。</t>
+          <t>管理局的綠地裡種出了一棵可食用的沙漠植物，或許可以在砂海上的實驗田裡試種一下。</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>破损囊胞</t>
+          <t>破損囊胞</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>破损囊胞</t>
+          <t>破損囊胞</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>新城最高水平的花道交流会邀请了一位禁闭者出席——毕竟她也是新城最炙手可热的花道大家。</t>
+          <t>新城最高水準的花道交流會邀請了一位禁閉者出席——畢竟她也是新城最炙手可熱的花道大家。</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>破损囊胞</t>
+          <t>破損囊胞</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>管理局需要监控一场上流宴会，参与者非富即贵，必须倍加小心。</t>
+          <t>管理局需要監控一場上流宴會，參與者非富即貴，必須倍加小心。</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>艾瑞尔</t>
+          <t>艾瑞爾</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -7928,7 +7928,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>赝品疑云</t>
+          <t>贗品疑雲</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>一家大型拍卖公司的拍品全部被替换成了赝品，相关细节还需要专人调查。</t>
+          <t>一家大型拍賣公司的拍賣品全部被替換成了贗品，相關細節還需要專人調查。</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>丽莎</t>
+          <t>麗莎</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>狂乱精粹</t>
+          <t>狂亂精粹</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
@@ -8038,7 +8038,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>狂乱精粹</t>
+          <t>狂亂精粹</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>梦的解析</t>
+          <t>夢的解析</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>狂乱精粹</t>
+          <t>狂亂精粹</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>狂乱精粹</t>
+          <t>狂亂精粹</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>游乐场阴云</t>
+          <t>遊樂場陰雲</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>某游乐场附近监测到异常辐射，需要专业人士前去处理。</t>
+          <t>某遊樂場附近監測到異常輻射，需要專業人士前去處理。</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>狂乱精粹</t>
+          <t>狂亂精粹</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>狂乱精粹</t>
+          <t>狂亂精粹</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>“潜伏”群众</t>
+          <t>「潛伏」群眾</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>以最朴实的态度融入到辛迪加，时刻警惕周围的风吹草动，这种日常监视很适合辛迪加的本地人。</t>
+          <t>以最樸實的態度融入到辛迪加，時刻警惕周圍的風吹草動，這種日常監視很適合辛迪加的本地人。</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>狄斯币</t>
+          <t>狄斯幣</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>狄斯币</t>
+          <t>狄斯幣</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>老猎人</t>
+          <t>老獵人</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>最近锈河出现了一些新品种野生生物的目击报告，为了确定并非死役或是其他异变怪物，需要专业人士前去确定来源。</t>
+          <t>最近鏽河出現了一些新品種野生生物的目擊報告，為了確定並非死役或是其他異變怪物，需要專業人士前去確定來源。</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>狄斯币</t>
+          <t>狄斯幣</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>狄斯币</t>
+          <t>狄斯幣</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>宠物失踪案</t>
+          <t>寵物失蹤案</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -8723,7 +8723,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>新城出现了多项宠物失踪案，寻找宠物和寻找犯人将同时进行。</t>
+          <t>新城出現了多項寵物失蹤案，尋找寵物和尋找犯人將同時進行。</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -8773,7 +8773,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>切尔西伯爵</t>
+          <t>切爾西伯爵</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>狄斯币</t>
+          <t>狄斯幣</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>狄斯币</t>
+          <t>狄斯幣</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>培训交流</t>
+          <t>培訓交流</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>FAC总部向管理局发布了交流学习的通知，许多禁闭者都对此嗤之以鼻。</t>
+          <t>FAC總部向管理局發佈了交流學習的通知，許多禁閉者都對此嗤之以鼻。</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>冰石粗矿</t>
+          <t>冰石粗礦</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -8978,7 +8978,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>冰石粗矿</t>
+          <t>冰石粗礦</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>闹鬼剧组</t>
+          <t>鬧鬼劇組</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -9043,7 +9043,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>一家剧组流传着闹鬼的传说，根据获得的录像，我们将对相关信息进行管制。</t>
+          <t>一家劇組流傳著鬧鬼的傳說，根據獲得的影像，我們將對相關資訊進行管制。</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>露薇娅·蕾</t>
+          <t>露薇婭·蕾</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>冰石粗矿</t>
+          <t>冰石粗礦</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>心理治疗</t>
+          <t>心理治療</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>某心理治疗室据称有囚禁病人的情况，我们将派出最精锐的队伍前往调查。</t>
+          <t>某心理治療室據稱有囚禁病人的情況，我們將派出最精銳的隊伍前往調查。</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>露薇娅·蕾</t>
+          <t>露薇婭·蕾</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -9298,7 +9298,7 @@
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>女仆咖啡厅</t>
+          <t>女僕咖啡廳</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>在管理局用作伪装的大量产业中，女仆咖啡厅毫无疑问是其中最奇怪的。</t>
+          <t>在管理局用作偽裝的大量產業中，女僕咖啡廳毫無疑問是其中最奇怪的。</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>暮辉石粗矿</t>
+          <t>暮輝石粗礦</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>暮辉石粗矿</t>
+          <t>暮輝石粗礦</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>专业护理</t>
+          <t>專業護理</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>狄斯城永远不缺伤员，这也保证了医护组总能拿到最高的派遣补贴。</t>
+          <t>狄斯城永遠不缺傷患，這也保證了醫護組總能拿到最高的派遣補貼。</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -9598,7 +9598,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>暮辉石粗矿</t>
+          <t>暮輝石粗礦</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>新药研发</t>
+          <t>新藥研發</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -9663,7 +9663,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>与班彦医学院及彼岸的合作有序推进，相关技术资料必须要得到严密保护。</t>
+          <t>與班彥醫學院及彼岸的合作有序推進，相關技術資料必須要得到嚴密保護。</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>维多利亚</t>
+          <t>維多利亞</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -9768,7 +9768,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>特邀评委</t>
+          <t>特邀評委</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>辛迪加的说唱歌手们要展开一场盛大的对决，为此治安局特别邀请了一名专业评委。</t>
+          <t>辛迪加的說唱歌手們要展開一場盛大的對決，為此治安局特別邀請了一名專業評委。</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -9888,7 +9888,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>破损骨片</t>
+          <t>破損骨片</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>破损骨片</t>
+          <t>破損骨片</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>审判迷踪</t>
+          <t>審判迷蹤</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>新城法院近期遭到了许多投诉，甚至有人宣称要让那些律师和法官为冤案付出血的代价，内务部对这个信息很感兴趣。</t>
+          <t>新城法院近期遭到了許多投訴，甚至有人宣稱要讓那些律師和法官為冤案付出血的代價，內務部對這個資訊很感興趣。</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>福克斯先生</t>
+          <t>Mr.Fox</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>破损骨片</t>
+          <t>破損骨片</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>锈河禁令</t>
+          <t>鏽河禁令</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -10133,7 +10133,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>近期锈河里的偷渡客数量激增，新城治安局想要找出背后运作此事的组织。</t>
+          <t>近期鏽河裡的偷渡客數量激增，新城治安局想要找出背後運作此事的組織。</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -10158,7 +10158,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>福克斯先生</t>
+          <t>Mr.Fox</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>柳生异动</t>
+          <t>柳生異動</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>柳生会社账面上出现了巨额资金流入，根据相关情报，他们正试图展开一场新的“狩猎”，这种行为必须被阻止。</t>
+          <t>柳生會社帳面上出現了巨額資金流入，根據相關情報，他們正試圖展開一場新的「狩獵」，這種行為必須被阻止。</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -10428,7 +10428,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>真假白记</t>
+          <t>真假白記</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -10453,7 +10453,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>辛迪加出现了一家新的白记公司，委托业务开展得红红火火，这让某位正牌的白老板大为气愤。</t>
+          <t>辛迪加出現了一家新的白記公司，委託業務開展得如火如荼，這讓某位正牌的白老闆大為氣憤。</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -10508,7 +10508,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>断裂角质</t>
+          <t>斷裂角質</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -10538,7 +10538,7 @@
       </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>断裂角质</t>
+          <t>斷裂角質</t>
         </is>
       </c>
       <c r="AG65" t="inlineStr">
@@ -10578,7 +10578,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>广告邀请</t>
+          <t>廣告邀請</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>狄斯优品公司想要进军体育器材行业，他们给管理局发了一份广告拍摄的意向书，并附赠了一大笔意向金。</t>
+          <t>狄斯優品公司想要進軍體育器材行業，他們給管理局發了一份廣告拍攝的意向書，並附贈了一大筆意向金。</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>断裂角质</t>
+          <t>斷裂角質</t>
         </is>
       </c>
       <c r="AG66" t="inlineStr">
@@ -10753,7 +10753,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>狄斯优品公司准备和管理局正式签订合作条约，但对于条约里的分成比例，管理局有些不同意见。</t>
+          <t>狄斯優品公司準備和管理局正式簽訂合作條約，但對於條約裡的分成比例，管理局有些不同意見。</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>福克斯先生</t>
+          <t>Mr.Fox</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>灰烬之潮</t>
+          <t>灰燼之潮</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -10923,7 +10923,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>本周期的灰烬之潮出现了一些异常波动，秘盟矩阵想要查明背后的原因。</t>
+          <t>本週期的灰燼之潮出現了一些異常波動，秘盟矩陣想要查明背後的原因。</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>观星者</t>
+          <t>觀星者</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>感染角质</t>
+          <t>感染角質</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
@@ -11048,7 +11048,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>安保测试</t>
+          <t>保全測試</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>上庭里某家族想要测试他们最近更新的安保系统，通过私人关系找到了管理局。</t>
+          <t>上庭裡某家族想要測試他們最近更新的保全系統，透過私人關係找到了管理局。</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -11098,7 +11098,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>昙</t>
+          <t>曇</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>红石粗矿</t>
+          <t>紅石粗礦</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>红石粗矿</t>
+          <t>紅石粗礦</t>
         </is>
       </c>
       <c r="AG69" t="inlineStr">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>战地救援</t>
+          <t>戰地救援</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>内海出现了大批死役，医护人员的压力濒临极限，内海特区为此向全城发布了救援令。</t>
+          <t>內海出現了大批死役，醫護人員的壓力瀕臨極限，內海特區為此向全城發佈了救援令。</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>红石粗矿</t>
+          <t>紅石粗礦</t>
         </is>
       </c>
       <c r="AG70" t="inlineStr">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>万灵会似乎在研究如何操纵尸体，为了狄斯人的身心健康，管理局必须提前行动。</t>
+          <t>萬靈會似乎在研究如何操縱屍體，為了狄斯人的身心健康，管理局必須提前行動。</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>奥利弗</t>
+          <t>奧利弗</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -11448,7 +11448,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -11478,7 +11478,7 @@
       </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AG71" t="inlineStr">
@@ -11518,7 +11518,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>伪装者</t>
+          <t>偽裝者</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>管理局潜伏在某商业公司的线人神秘失踪，或许可以派出一名伪装者来进行暗中调查。</t>
+          <t>管理局潛伏在某商業公司的線人神秘失蹤，或許可以派出一名偽裝者來進行暗中調查。</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -11568,7 +11568,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>玛奇朵</t>
+          <t>瑪奇朵</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -11598,7 +11598,7 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>泪石粗矿</t>
+          <t>淚石粗礦</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>泪石粗矿</t>
+          <t>淚石粗礦</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>新城出现了一连串的诈骗案，据传和新城福利院里的孤儿有关，有人对这个传闻很感兴趣。</t>
+          <t>新城出現了一連串的詐騙案，據傳和新城育幼院裡的孤兒有關，有人對這個傳聞很感興趣。</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>奥利弗</t>
+          <t>奧利弗</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
@@ -11778,7 +11778,7 @@
       </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>泪石粗矿</t>
+          <t>淚石粗礦</t>
         </is>
       </c>
       <c r="AG73" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>传说锈河地带出现了一些有生命的玩具傀儡，管理局需要确定这一情报的真实性。</t>
+          <t>傳說鏽河地帶出現了一些有生命的玩具傀儡，管理局需要確定這一情報的真實性。</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -11868,7 +11868,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>奥利弗</t>
+          <t>奧利弗</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -11918,7 +11918,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
@@ -11948,7 +11948,7 @@
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AG74" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>文化课</t>
+          <t>文化課</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -12013,7 +12013,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>为了更好地执行各类任务，管理局为某些禁闭者特别开设了基础的文化课。</t>
+          <t>為了更有餘裕地執行各類任務，管理局為某些禁閉者特別開設了基礎的文化課程。</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -12038,7 +12038,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>赫罗</t>
+          <t>赫羅</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -12068,7 +12068,7 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
@@ -12098,7 +12098,7 @@
       </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>毒砂粗矿</t>
+          <t>毒砂粗礦</t>
         </is>
       </c>
       <c r="AG75" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>学习小组</t>
+          <t>學習小組</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>在管理局的特别培训中，禁闭者们会组成一对一的学习小组，在各自的优势领域互相帮助。</t>
+          <t>在管理局的特別培訓中，禁閉者們會組成一對一的學習小組，在各自的優勢領域互相幫助。</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AG76" t="inlineStr">
@@ -12288,7 +12288,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>指引信标</t>
+          <t>指引信標</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>涅槃运输希望完善砂海内的信标网络，为砂海航船提供最精确的引导，为此与管理局进行了深度合作。</t>
+          <t>涅槃運輸希望完善砂海內的信標網路，為砂海航船提供最精確的引導，為此與管理局進行了深度合作。</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -12398,7 +12398,7 @@
       </c>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>破损囊胞</t>
+          <t>破損囊胞</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>砂海寻踪</t>
+          <t>砂海尋蹤</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -12463,7 +12463,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>一场突如其来的沙尘暴致使涅槃运输多艘砂船失踪，我们希望能找到他们，并将其安全带回。</t>
+          <t>一場突如其來的沙塵暴致使涅槃運輸多艘砂船失蹤，我們希望能找到他們，並將其安全帶回。</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>赫罗</t>
+          <t>赫羅</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>观赏蛇出逃事件</t>
+          <t>觀賞蛇出逃事件</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>新城一动物园内饲养的观赏蛇逃逸伤人，造成了市民恐慌。为了尽快将其抓捕，治安局急需熟悉蛇类习性的专业人士进行协助。</t>
+          <t>新城一動物園內飼養的觀賞蛇逃逸傷人，造成了市民恐慌。為了盡快將其抓捕，治安局急需熟悉蛇類習性的專業人士進行協助。</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -12698,7 +12698,7 @@
       </c>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AG79" t="inlineStr">
@@ -12763,7 +12763,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>一名新城的新人锻造师自称师承新城第一武器工匠，引得不少人慕名而去，此事让从未收过徒的新城第一武器工匠本人气得不轻。</t>
+          <t>一名新城的新人鍛造師自稱師承新城第一武器工匠，引得不少人慕名而去，此事讓從未收過徒的新城第一武器工匠本人氣得不輕。</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -12788,7 +12788,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>莓丝</t>
+          <t>莓絲</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -12818,7 +12818,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>冰石粗矿</t>
+          <t>冰石粗礦</t>
         </is>
       </c>
       <c r="AG80" t="inlineStr">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>限量发售</t>
+          <t>限量發售</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12913,7 +12913,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>高人气玩具店推出限量新品，已经出现有人凌晨通宵排队购买的情况。</t>
+          <t>高人氣玩具店推出限量新品，已經出現有人凌晨通宵排隊購買的情況。</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -12938,7 +12938,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>莓丝</t>
+          <t>莓絲</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>奥利弗</t>
+          <t>奧利弗</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
@@ -13018,7 +13018,7 @@
       </c>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AG81" t="inlineStr">
@@ -13058,7 +13058,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>艺术顾问</t>
+          <t>藝術顧問</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -13083,7 +13083,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>新城正在筹建一座全新的雕塑博物馆，相关负责人联系管理局，想要聘请一位专业人士作为艺术顾问。</t>
+          <t>新城正在籌建一座全新的雕塑博物館，相關負責人聯繫管理局，想要聘請一位專業人士作為藝術顧問。</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -13108,7 +13108,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>恩菲尔</t>
+          <t>恩菲爾</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -13138,7 +13138,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>暮辉晶</t>
+          <t>暮輝晶</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
@@ -13168,7 +13168,7 @@
       </c>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AG82" t="inlineStr">
@@ -13208,7 +13208,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>文化交流会</t>
+          <t>文化交流會</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>新城图书馆近期将要举办一场古典主义艺术与文学交流会，某位爱好者早早提交了参与申请。</t>
+          <t>新城圖書館近期將要舉辦一場古典主義藝術與文學交流會，某位愛好者早早提交了參與申請。</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -13258,7 +13258,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>麦昆</t>
+          <t>麥昆</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -13318,7 +13318,7 @@
       </c>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>暮辉石粗矿</t>
+          <t>暮輝石粗礦</t>
         </is>
       </c>
       <c r="AG83" t="inlineStr">
@@ -13358,7 +13358,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>作赝团伙</t>
+          <t>作贗集團</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>某艺术大师的展出作品接连失窃，而后当地黑市流出大量制作精良的赝品，疑似专业团伙作案，急需彻查。</t>
+          <t>某藝術大師的展出作品接連失竊，接著當地黑市流出大量製作精良的贗品，疑似專業集團作案，急需徹查。</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -13408,7 +13408,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>麦昆</t>
+          <t>麥昆</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -13458,7 +13458,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
@@ -13488,7 +13488,7 @@
       </c>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AG84" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>死役袭击</t>
+          <t>死役襲擊</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -13553,7 +13553,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>某地遭到不明来源的死役袭击，管理局受托派出专业人士前往支援。</t>
+          <t>某地遭到不明來源的死役襲擊，管理局受託派出專業人士前往支援。</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -13638,7 +13638,7 @@
       </c>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AG85" t="inlineStr">
@@ -13678,7 +13678,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>乐手招募</t>
+          <t>樂手招募</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -13703,7 +13703,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>某知名交响乐团招募新乐手，正在组织海选，有人听闻消息后跃跃欲试。</t>
+          <t>某知名交響樂團招募新樂手，正在進行海選，有人聽聞消息後躍躍欲試。</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -13758,7 +13758,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
@@ -13788,7 +13788,7 @@
       </c>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>红石粗矿</t>
+          <t>紅石粗礦</t>
         </is>
       </c>
       <c r="AG86" t="inlineStr">
@@ -13828,7 +13828,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>卧底调查</t>
+          <t>臥底調查</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -13853,7 +13853,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>一个来自外邦的街头卖艺者团体行迹十分可疑，管理局决定立即派人进行卧底调查。</t>
+          <t>一個來自外邦的街頭賣藝者團體行跡十分可疑，管理局決定立即派人進行臥底調查。</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>露薇娅·蕾</t>
+          <t>露薇婭·蕾</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -13928,7 +13928,7 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
@@ -13998,7 +13998,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>电影大师班</t>
+          <t>電影大師班</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>新城某电影学院将为在校学生组织一场关于电影拍摄技法的讲座，校方联系到管理局，希望邀请某位电影大师前去担任讲师。</t>
+          <t>新城某電影學院將為在校學生組織一場關於電影拍攝技法的講座，校方聯繫到管理局，希望邀請某位電影大師前去擔任講師。</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>黛伦</t>
+          <t>黛倫</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -14078,7 +14078,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>泪晶</t>
+          <t>淚晶</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -14108,7 +14108,7 @@
       </c>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AG88" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>摄影教材</t>
+          <t>攝影教材</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>管理局内新添置了一批摄影教材和大师作品集，某人听到消息后非常高兴，第一时间提交了借阅申请。</t>
+          <t>管理局內新添置了一批攝影教材和大師作品集，某人聽到消息後非常高興，第一時間提交了借閱申請。</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -14228,7 +14228,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>毒砂粗矿</t>
+          <t>毒砂粗礦</t>
         </is>
       </c>
       <c r="AG89" t="inlineStr">
@@ -14298,7 +14298,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>北上采风</t>
+          <t>北上取材</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>某位擅长摄影的禁闭者想要前往北方拍摄不一样的风景，于是趁着另一位禁闭者即将北上出任务时向局长提出了同去的申请。</t>
+          <t>某位擅長攝影的禁閉者想要前往北方拍攝不一樣的風景，於是趁著另一位禁閉者即將北上出任務時向局長提出了同去的申請。</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -14398,7 +14398,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AG90" t="inlineStr">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>开业大吉</t>
+          <t>開業大吉</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>一位MBCC工作人员在老家的店铺开张了，想邀请某位擅长舞狮纳福的禁闭者一同前往庆祝。</t>
+          <t>一位MBCC工作人員在老家的店舖開張了，想邀請某位擅長舞獅納福的禁閉者一同前往慶祝。</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>嗷呜</t>
+          <t>嗷嗚</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -14578,7 +14578,7 @@
       </c>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AG91" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>桌游风波</t>
+          <t>桌遊風波</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>治安局传来消息，有不法分子隐藏在桌游玩家之中混淆视听，于是管理局派出了一名熟悉此项活动的人员前去协助抓捕。</t>
+          <t>治安局傳來消息，有不法分子隱藏在桌遊玩家之中混淆視聽，於是管理局派出了一名熟悉此項活動的人員前去協助抓捕。</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -14668,7 +14668,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>爱缇</t>
+          <t>愛緹</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>曲铜晶</t>
+          <t>曲銅晶</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AG92" t="inlineStr">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>主场优势</t>
+          <t>主場優勢</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>据可靠线报，一名嫌疑犯最近常出没于新城各鱼龙混杂的娱乐场所，需要熟悉环境者进行调查和证据搜集工作。</t>
+          <t>據可靠線報，一名嫌疑犯最近常出沒於新城各魚龍混雜的娛樂場所，需要熟悉環境者進行調查和證據搜集工作。</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>李维</t>
+          <t>李維</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -14848,7 +14848,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>曲铜粗矿</t>
+          <t>曲銅粗礦</t>
         </is>
       </c>
       <c r="AG93" t="inlineStr">
@@ -14918,7 +14918,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>诈骗团伙</t>
+          <t>詐騙集團</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>近期一个狡猾刁钻的诈骗团伙令治安局十分头疼，管理局为此特地派出了思维灵活且能言善辩的禁闭者前往支援。</t>
+          <t>近期一個狡猾刁鑽的詐騙集團令治安局十分頭痛，管理局為此特地派出了思維靈活且能言善辯的禁閉者前往支援。</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>李维</t>
+          <t>李維</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>福克斯先生</t>
+          <t>Mr.Fox</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -15018,7 +15018,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -15048,7 +15048,7 @@
       </c>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AG94" t="inlineStr">
@@ -15088,7 +15088,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>考察教学</t>
+          <t>考察教學</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>新城某知名学校将要举行教学公开活动，欢迎各界人士参观交流。某立志在管理局内开班授课的人员申请前往考察。</t>
+          <t>新城某知名學校將要舉行公開教學活動，歡迎各界人士參觀交流。某立志在管理局內開班授課的人員申請前往考察。</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>渡鸦</t>
+          <t>渡鴉</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>感染凝胶</t>
+          <t>感染凝膠</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -15198,7 +15198,7 @@
       </c>
       <c r="AF95" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AG95" t="inlineStr">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>民间私斗</t>
+          <t>民間私鬥</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -15263,7 +15263,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>据传一群暴力分子常混迹潜伏于民间私斗，但由于目标场所形势复杂，需派出经验丰富的人员前往调查。</t>
+          <t>據傳一群暴力分子常混跡潛伏於民間私鬥，但由於目標場所形勢複雜，需派出經驗豐富的人員前往調查。</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -15318,7 +15318,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="AF96" t="inlineStr">
         <is>
-          <t>悬浊凝胶</t>
+          <t>懸濁凝膠</t>
         </is>
       </c>
       <c r="AG96" t="inlineStr">
@@ -15388,7 +15388,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>非法屠宰场</t>
+          <t>非法屠宰場</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -15413,7 +15413,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>治安局收到一则线报，某非法屠宰场环境恶劣，受害动物感染严重，遂向管理局申请熟悉动物习性的人士协助。</t>
+          <t>治安局收到一則線報，某非法屠宰場環境惡劣，受害動物感染嚴重，遂向管理局申請熟悉動物習性的人士協助。</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -15488,7 +15488,7 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -15518,7 +15518,7 @@
       </c>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>倾诉树洞</t>
+          <t>傾訴樹洞</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -15583,7 +15583,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>管理局内需要一名能够作为树洞的“烦恼倾听者”，并装饰了一间类似宇宙星空的房间作为倾吐地点。</t>
+          <t>管理局內需要一名能夠作為樹洞的「煩惱傾聽者」，並裝飾了一間類似宇宙星空的房間作為傾吐地點。</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>整容风波</t>
+          <t>整容風波</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -15733,7 +15733,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>一位为自己的鼻子保险三个亿的明星因为鼻梁断裂，保险公司无法赔偿，遂起了争执，需要一名极擅长整容的人员进行现场协调。</t>
+          <t>一位為自己的鼻子保險了三億的明星因為鼻樑斷裂，保險公司無法賠償，遂起了爭執，需要一名極擅長整容的人員進行現場協調。</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="AF99" t="inlineStr">
         <is>
-          <t>鞘翅残片</t>
+          <t>鞘翅殘片</t>
         </is>
       </c>
       <c r="AG99" t="inlineStr">
@@ -15858,7 +15858,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>案发现场</t>
+          <t>案發現場</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -15883,7 +15883,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>管理局收到治安协助请求，需要还原一个在案发现场被破坏的人体物证。</t>
+          <t>管理局收到治安協助請求，需要還原一個在案發現場被破壞的人體物證。</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>怪谈模仿犯</t>
+          <t>怪談模仿犯</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -16053,7 +16053,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>近期有许多模仿雾夜怪谈的犯罪案件，需要一位了解该都市传说的禁闭者前去支援。</t>
+          <t>近期有許多模仿霧夜怪談的犯罪案件，需要一位瞭解該都市傳說的禁閉者前去支援。</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -16178,7 +16178,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>紧急救援</t>
+          <t>緊急救援</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -16203,7 +16203,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>某处建筑倒塌导致多人被埋在废墟之下，急需一位能够无视物理障碍的禁闭者前往救援。</t>
+          <t>某處建築倒塌導致多人被埋在廢墟之下，急需一位能夠無視物理障礙的禁閉者前往救援。</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -16228,7 +16228,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>莱塔</t>
+          <t>萊塔</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>破损囊胞</t>
+          <t>破損囊胞</t>
         </is>
       </c>
       <c r="AG102" t="inlineStr">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>冒险大师</t>
+          <t>冒險大師</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -16353,7 +16353,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>新的冒险传说风靡新城，两位爱好者蠢蠢欲动，准备前去一探究竟。</t>
+          <t>新的冒險傳說風靡新城，兩位愛好者蠢蠢欲動，準備前去一探究竟。</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>莱塔</t>
+          <t>萊塔</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>试吃邀请</t>
+          <t>試吃邀請</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -16523,7 +16523,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>新城备受瞩目的顶级餐馆将于三天后正式开业，餐馆老板盛情邀请某位知名美食家在开业庆典当日前去试吃。</t>
+          <t>新城備受矚目的頂級餐廳將於三天後正式開業，餐廳老闆盛情邀請某位知名美食家在開業慶典當日前去試吃。</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -16548,7 +16548,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>卡门奈特</t>
+          <t>卡門奈特</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>海洋艺术展</t>
+          <t>海洋藝術展</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -16673,7 +16673,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>新城某新锐艺术家正在筹办以“海洋”为主题的个人艺术展，他联系到管理局，希望可以从某位禁闭者身上获取一些素材和灵感。</t>
+          <t>新城某新銳藝術家正在籌辦以「海洋」為主題的個人藝術展，他聯繫到管理局，希望可以從某位禁閉者身上獲得一些素材和靈感。</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -16698,7 +16698,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>拉弥亚</t>
+          <t>拉彌亞</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
@@ -16798,7 +16798,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>协助调查</t>
+          <t>協助調查</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>MBCC接到治安局求助，需紧急调派两位能够从性格上做出伪装的禁闭者前往协助新城市民神秘失踪案的调查。</t>
+          <t>MBCC接到治安局求助，需緊急調派兩位善於偽裝性格的禁閉者前往協助新城市民神秘失蹤案的調查。</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -16848,7 +16848,7 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>拉弥亚</t>
+          <t>拉彌亞</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
@@ -16873,7 +16873,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>露薇娅·蕾</t>
+          <t>露薇婭·蕾</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>联合演练</t>
+          <t>聯合演練</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -16993,7 +16993,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>FAC举办了一场联合演练大赛，需要派出一名有过往经验的前FAC人员前往参加。</t>
+          <t>FAC舉辦了一場聯合演練大賽，需要派出一名有過往經驗的前FAC人員前往參加。</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -17018,7 +17018,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>罗睺</t>
+          <t>羅睺</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
@@ -17048,7 +17048,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>感染凝胶</t>
+          <t>感染凝膠</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
@@ -17078,7 +17078,7 @@
       </c>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AG107" t="inlineStr">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>秀场救急</t>
+          <t>秀場救急</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -17143,7 +17143,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>新城某时装工作室在时装秀前夕面临爆单，人力不足，急需一名专业裁缝协助。</t>
+          <t>新城某時裝工作室在時裝秀前夕接到爆量訂單，人力不足，急需一名專業裁縫師協助。</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -17168,7 +17168,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>加洛法诺</t>
+          <t>加洛法諾</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
@@ -17198,7 +17198,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -17228,7 +17228,7 @@
       </c>
       <c r="AF108" t="inlineStr">
         <is>
-          <t>悬浊凝胶</t>
+          <t>懸濁凝膠</t>
         </is>
       </c>
       <c r="AG108" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>花园疑云</t>
+          <t>花園疑雲</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -17293,7 +17293,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>某地出现了多起疑似效仿“花园”手法的案件，治安局遂向管理局申请派遣花园相关人员协助调查。</t>
+          <t>某地出現了多起疑似效仿「花園」手法的案件，治安局遂向管理局申請派遣花園相關人員協助調查。</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -17318,7 +17318,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>加洛法诺</t>
+          <t>加洛法諾</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
@@ -17398,7 +17398,7 @@
       </c>
       <c r="AF109" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AG109" t="inlineStr">
@@ -17438,7 +17438,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>猎奇音乐交流会</t>
+          <t>獵奇音樂交流會</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -17463,7 +17463,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>某新城名流送来了一场地下猎奇音乐交流会的请柬，某位音乐品味极为广泛的禁闭者认领了请柬，并打算用自己的黑石英将音乐会记录下来。</t>
+          <t>某新城名流送來了一場地下獵奇音樂交流會的請柬，某位音樂品味極為廣泛的禁閉者認領了請柬，並打算用自己的黑石英將音樂會記錄下來。</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -17613,7 +17613,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>新城某地发生了一起疑案，治安局紧急向管理局申请一名具有推理能力的专业人士协助破案。</t>
+          <t>新城某地發生了一起疑案，治安局緊急向管理局申請一名具有推理能力的專業人士協助破案。</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -17668,7 +17668,7 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
@@ -17698,7 +17698,7 @@
       </c>
       <c r="AF111" t="inlineStr">
         <is>
-          <t>断裂角质</t>
+          <t>斷裂角質</t>
         </is>
       </c>
       <c r="AG111" t="inlineStr">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>道具侦查</t>
+          <t>道具偵查</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -17763,7 +17763,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>治安局怀疑某厂家以贩售舞台道具的名义私自生产交易危险物品，需要管理局派出擅长辨别违禁品的人员进行侦查。</t>
+          <t>治安局懷疑某廠家以販售舞台道具的名義私自生產交易危險物品，需要管理局派出擅長辨別違禁品的人員進行偵查。</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -17813,7 +17813,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>莓丝</t>
+          <t>莓絲</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
@@ -17838,7 +17838,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
@@ -17868,7 +17868,7 @@
       </c>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AG112" t="inlineStr">
@@ -17908,7 +17908,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>月光浴场</t>
+          <t>月光浴場</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -17933,7 +17933,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>新城某露天浴场疑似发生了狂厄事件，由于该浴场有特色夜间开放主题，某热衷于享受沐浴的禁闭者强烈要求前往调查。</t>
+          <t>新城某露天浴場疑似發生了狂厄事件，由於該浴場有特色夜間開放主題，某熱衷於享受沐浴的禁閉者強烈要求前往調查。</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -17988,7 +17988,7 @@
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>感染角质</t>
+          <t>感染角質</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
@@ -18018,7 +18018,7 @@
       </c>
       <c r="AF113" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AG113" t="inlineStr">
@@ -18058,7 +18058,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>动物园失窃</t>
+          <t>動物園失竊</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -18083,7 +18083,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>新城某动物园丢失了一批鳄鱼，治安局找到了犯人，鳄鱼却无影无踪，急需一名精通动物生态的禁闭者前往协助搜寻。</t>
+          <t>新城某動物園遺失了一批鱷魚，治安局找到了犯人，鱷魚卻消失無蹤，急需一名精通動物生態的禁閉者前往協助搜尋。</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -18108,7 +18108,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>曼缇斯</t>
+          <t>曼緹斯</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
@@ -18208,7 +18208,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>香水拍卖</t>
+          <t>香水拍賣</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -18233,7 +18233,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>有人自称能调制出传说中的永恒之香，并以其为卖点召开拍卖会敛财，某挚爱香水的禁闭者自愿前往瞻仰，或者打假。</t>
+          <t>有人自稱能調製出傳說中的永恆之香，並以其為賣點召開拍賣會斂財，某摯愛香水的禁閉者自願前往瞻仰，或者揭穿騙局。</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -18258,7 +18258,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>卡西娅</t>
+          <t>卡西婭</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
@@ -18318,7 +18318,7 @@
       </c>
       <c r="AF115" t="inlineStr">
         <is>
-          <t>鞘翅残片</t>
+          <t>鞘翅殘片</t>
         </is>
       </c>
       <c r="AG115" t="inlineStr">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>伪装贵族</t>
+          <t>偽裝貴族</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -18383,7 +18383,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>新城治安局因故需派出警员装扮成贵族小姐进行潜入搜查，需要精通服装搭配和香氛鉴赏的禁闭者提供支持。</t>
+          <t>新城治安局因故需派出警員裝扮成貴族小姐進行潛入搜查，需要精通服裝搭配和香氛鑒賞的禁閉者支援。</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -18408,7 +18408,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>卡西娅</t>
+          <t>卡西婭</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
@@ -18433,7 +18433,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>加洛法诺</t>
+          <t>加洛法諾</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -18528,7 +18528,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>解铃还须系铃人</t>
+          <t>解鈴還需繫鈴人</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -18553,7 +18553,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>近日新城医院接待的失眠患者人数急剧攀升，据称多由对怪谈的恐惧诱发，急需催眠ASMR节目辅助治疗。</t>
+          <t>近日新城醫院接待的失眠患者人數急劇攀升，據稱多由對怪談的恐懼誘發，急需催眠ASMR節目輔助治療。</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>雷温</t>
+          <t>雷溫</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>曲铜晶</t>
+          <t>曲銅晶</t>
         </is>
       </c>
       <c r="AA117" t="inlineStr">
@@ -18638,7 +18638,7 @@
       </c>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AG117" t="inlineStr">
@@ -18678,7 +18678,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>零食试吃</t>
+          <t>零食試吃</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -18703,7 +18703,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>某趣味零食网站刚刚创业，希望快速打出名气，需要一名主播直播试吃奇葩零食并带货。</t>
+          <t>某趣味零食網站剛剛創業，希望快速打出名氣，需要一名主播直播試吃奇葩零食並帶貨。</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -18728,7 +18728,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>妮诺</t>
+          <t>妮諾</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
@@ -18758,7 +18758,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
@@ -18788,7 +18788,7 @@
       </c>
       <c r="AF118" t="inlineStr">
         <is>
-          <t>曲铜粗矿</t>
+          <t>曲銅粗礦</t>
         </is>
       </c>
       <c r="AG118" t="inlineStr">
@@ -18828,7 +18828,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>毒舌评论</t>
+          <t>毒舌評論</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -18853,7 +18853,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>新城某深夜恶搞综艺收视率下跌，急聘会整活的评论家出演节目，评论社会热点时事。</t>
+          <t>新城某深夜惡搞綜藝收視率下跌，急聘會惡搞的評論家出演節目，評論社會熱門時事。</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>妮诺</t>
+          <t>妮諾</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
@@ -18903,7 +18903,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>莓丝</t>
+          <t>莓絲</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AA119" t="inlineStr">
@@ -18958,7 +18958,7 @@
       </c>
       <c r="AF119" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AG119" t="inlineStr">
@@ -18998,7 +18998,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>玩具的凝视</t>
+          <t>玩具的凝視</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -19023,7 +19023,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>近日多名市民报案称感觉被女儿的洋娃娃盯着看，疑似偷拍团伙改造玩具后使其流入市场，急需一名精通玩具设计制造的禁闭者协助调查。</t>
+          <t>近日多名市民報案稱感覺被女兒的洋娃娃盯著看，疑似偷拍集團改造玩具後使其流入市場，急需一名精通玩具設計製造的禁閉者協助調查。</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -19148,7 +19148,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>科幻电影节</t>
+          <t>科幻電影節</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -19173,7 +19173,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>新城将举办低成本小众科幻电影节，某渴望从电影中获取发明灵感的禁闭者积极要求参加。</t>
+          <t>新城將舉辦低成本小眾科幻電影節，某渴望從電影中獲得發明靈感的禁閉者積極要求參加。</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -19198,7 +19198,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>优利卡</t>
+          <t>優利卡</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -19258,7 +19258,7 @@
       </c>
       <c r="AF121" t="inlineStr">
         <is>
-          <t>破损囊胞</t>
+          <t>破損囊胞</t>
         </is>
       </c>
       <c r="AG121" t="inlineStr">
@@ -19298,7 +19298,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>大赛评委</t>
+          <t>大賽評委</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -19323,7 +19323,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>新城某侦探文化俱乐部组织举办了趣味侦探道具设计大赛，急需对趣味道具发明制作和侦探道具有深厚造诣的评委参与评审。</t>
+          <t>新城某偵探文化俱樂部組織舉辦了趣味偵探道具設計大賽，急需對趣味道具發明製作和偵探道具有深厚造詣的評委參與評審。</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -19348,7 +19348,7 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>优利卡</t>
+          <t>優利卡</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
@@ -19468,7 +19468,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>锈火历史</t>
+          <t>鏽火歷史</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -19493,7 +19493,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>管理局计划梳理一份有关“锈火”组织兴起与发展的详尽历史材料，需要知情者协助完成。</t>
+          <t>管理局計畫梳理一份有關「鏽火」組織興起與發展的詳盡歷史資料，需要知情者協助完成。</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -19618,7 +19618,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>枪械试用</t>
+          <t>槍械試用</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -19643,7 +19643,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>某研究院研制出了最新型号的手枪，急需精通枪械者试用评估。</t>
+          <t>某研究院研製出了最新型號的手槍，急需精通槍械者試用評估。</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -19668,7 +19668,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>玛蒂尔达</t>
+          <t>瑪蒂爾達</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
@@ -19728,7 +19728,7 @@
       </c>
       <c r="AF124" t="inlineStr">
         <is>
-          <t>破损骨片</t>
+          <t>破損骨片</t>
         </is>
       </c>
       <c r="AG124" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>清洁大扫除</t>
+          <t>清潔大掃除</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -19793,7 +19793,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>管理局近来公务繁忙，疏于家务清洁，某二位禁闭者决定共同完成一次大扫除。</t>
+          <t>管理局近來公務繁忙，疏於家務清潔，某兩位禁閉者決定共同完成一次大掃除。</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -19818,7 +19818,7 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>玛蒂尔达</t>
+          <t>瑪蒂爾達</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
@@ -19938,7 +19938,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>选秀评委</t>
+          <t>選秀評委</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -19963,7 +19963,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>某娱乐推出了新一档选秀节目，这次以选出音乐剧的未来之星为主题，现急招大众评委参与录制，某禁闭者主动要求前往参与并挖掘蒙尘明珠。</t>
+          <t>某娛樂公司推出了新一檔選秀節目，這次以選出音樂劇的未來之星為主題，現急徵大眾評委參與錄製，某禁閉者主動要求前往參與並挖掘蒙塵明珠。</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -19988,7 +19988,7 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>珀尔夫人</t>
+          <t>珀爾夫人</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
@@ -20018,7 +20018,7 @@
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>泪晶</t>
+          <t>淚晶</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
@@ -20048,7 +20048,7 @@
       </c>
       <c r="AF126" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AG126" t="inlineStr">
@@ -20088,7 +20088,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>人气大赛</t>
+          <t>人氣大賽</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -20113,7 +20113,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>某协会在新城组织了一场街头艺人大赛，所有民众均可免费观看并投出自己的一票，某禁闭者听说后自告奋勇想要参加，并称自己一定会拿到冠军。</t>
+          <t>某協會在新城組織了一場街頭藝人大賽，所有民眾均可免費觀看並投出自己的一票，某禁閉者聽說後自告奮勇想要參加，並稱自己一定會拿到冠軍。</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -20168,7 +20168,7 @@
       </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
@@ -20198,7 +20198,7 @@
       </c>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>泪石粗矿</t>
+          <t>淚石粗礦</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
@@ -20238,7 +20238,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>声波武器</t>
+          <t>聲波武器</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -20263,7 +20263,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>治安局目前正在大力研发声波武器，急需能够使用声波进行攻击以及善于发明创造的禁闭者参与研制。</t>
+          <t>治安局目前正在大力研發聲波武器，急需能夠使用聲波進行攻擊以及善於發明創造的禁閉者參與研製。</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -20313,7 +20313,7 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>优利卡</t>
+          <t>優利卡</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
@@ -20338,7 +20338,7 @@
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AA128" t="inlineStr">
@@ -20368,7 +20368,7 @@
       </c>
       <c r="AF128" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AG128" t="inlineStr">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>炸弹预告</t>
+          <t>炸彈預告</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -20433,7 +20433,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>MBCC接到治安局求助，新城某地标的巨型时钟被装入了炸药，内部构造复杂且危险，需要立即指派一名非常了解机械构造的禁闭者前来协助。</t>
+          <t>MBCC接到治安局求助，新城某地標的巨型時鐘被裝入了炸藥，內部構造複雜且危險，需要立即指派一名非常瞭解機械構造的禁閉者前來協助。</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -20558,7 +20558,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>手账集市</t>
+          <t>手帳市集</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -20583,7 +20583,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>新城举行了手账集市活动，某禁闭者坚称其中潜藏着大量不明危险，积极主动地申请前往排除威胁。</t>
+          <t>新城舉行了手帳市集活動，某禁閉者堅稱其中潛藏著大量不明危險，積極主動地申請前往排除威脅。</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -20608,7 +20608,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>蓟</t>
+          <t>薊</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>女高绑架案</t>
+          <t>女高綁架案</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -20733,7 +20733,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>新城某女高发生了集体绑架事件，应治安局要求，MBCC紧急派遣两名禁闭者伪装成在校女高混入其中，实行秘密解救人质的计划。</t>
+          <t>新城某女高發生了集體綁架事件，應治安局要求，MBCC緊急派遣兩名禁閉者偽裝成女高在校生混入其中，實行秘密解救人質的計畫。</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -20758,7 +20758,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>蓟</t>
+          <t>薊</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
@@ -20878,7 +20878,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>古籍辨认</t>
+          <t>古籍辨認</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -20903,7 +20903,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>新城图书馆近期失窃了一批来自异邦的珍贵书籍原件，急需有关学者协助追回和甄辨。</t>
+          <t>新城圖書館近期失竊了一批來自異邦的珍貴書籍原件，急需有關學者協助追回和辨識。</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -20958,7 +20958,7 @@
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>感染凝胶</t>
+          <t>感染凝膠</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
@@ -20988,7 +20988,7 @@
       </c>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AG132" t="inlineStr">
@@ -21028,7 +21028,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>料理盛会</t>
+          <t>料理盛會</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -21053,7 +21053,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>新城料理大会开幕在即，主办方向管理局发出友情邀请，某禁闭者在看到请帖后主动要求前去赴约。</t>
+          <t>新城料理大會開幕在即，主辦方向管理局發出友情邀請，某禁閉者在看到請帖後主動要求前去赴約。</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -21078,7 +21078,7 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>烟烟</t>
+          <t>煙煙</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
@@ -21138,7 +21138,7 @@
       </c>
       <c r="AF133" t="inlineStr">
         <is>
-          <t>鞘翅残片</t>
+          <t>鞘翅殘片</t>
         </is>
       </c>
       <c r="AG133" t="inlineStr">
@@ -21178,7 +21178,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>童装模特失踪案</t>
+          <t>童裝模特兒失蹤案</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>近日，新城某知名贵价童装品牌有多名模特在拍摄后失踪，需派出两名禁闭者变装潜入，查明真相。</t>
+          <t>近日，新城某知名貴價童裝品牌有多名模特兒在拍攝後失蹤，需派出兩名禁閉者變裝潛入，查明真相。</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -21228,7 +21228,7 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>烟烟</t>
+          <t>煙煙</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
@@ -21253,7 +21253,7 @@
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>奥利弗</t>
+          <t>奧利弗</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>讲座探查</t>
+          <t>講座探查</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -21373,7 +21373,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>治安局近期接到投诉，一名自称大师的可疑人士在四处开设“沟通太阳”相关讲座，需派出一名禁闭者前往探查。</t>
+          <t>治安局近期接到投訴，一名自稱大師的可疑人士在四處開設「溝通太陽」相關講座，需派出一名禁閉者前往探查。</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -21498,7 +21498,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>发呆冠军</t>
+          <t>發呆冠軍</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -21523,7 +21523,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>近日新城无聊人协会组织了一场发呆大赛，最终胜者可获巨额奖金，许多能发呆10小时以上的强者纷纷参与，某禁闭者得知后也难得表示了兴趣。</t>
+          <t>近日新城無聊人協會組織了一場發呆大賽，最終勝者可獲巨額獎金，許多能發呆10小時以上的強者紛紛參與，某禁閉者得知後也難得表示了興趣。</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -21548,7 +21548,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>安吉尔</t>
+          <t>安吉爾</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
@@ -21608,7 +21608,7 @@
       </c>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AG136" t="inlineStr">
@@ -21648,7 +21648,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>混战教学</t>
+          <t>混戰教學</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -21673,7 +21673,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>由于痛感在巷战等复杂环境下的战斗力不足，新城治安局急聘有丰富街头混战经验的搏击教官一名，以进一步强化训练质量。</t>
+          <t>由於痛感在巷戰等複雜環境下的戰鬥力不足，新城治安局急聘有豐富街頭混戰經驗的搏擊教官一名，以進一步強化訓練品質。</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -21698,7 +21698,7 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>戈蓝</t>
+          <t>戈藍</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
@@ -21728,7 +21728,7 @@
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr">
@@ -21758,7 +21758,7 @@
       </c>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>毒砂粗矿</t>
+          <t>毒砂粗礦</t>
         </is>
       </c>
       <c r="AG137" t="inlineStr">
@@ -21798,7 +21798,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>可爱诱惑</t>
+          <t>可愛誘惑</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -21823,7 +21823,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>某知名精品店连锁品牌决定进军辛迪加并推出地区限定版玩偶，某几位禁闭者听说后积极要求前往该地区执行任务。</t>
+          <t>某知名精品店連鎖品牌決定進軍辛迪加並推出地區限定版玩偶，某幾位禁閉者聽說後積極要求前往該地區執行任務。</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -21848,7 +21848,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>戈蓝</t>
+          <t>戈藍</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -21873,7 +21873,7 @@
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>蓟</t>
+          <t>薊</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
@@ -21898,7 +21898,7 @@
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AA138" t="inlineStr">
@@ -21928,7 +21928,7 @@
       </c>
       <c r="AF138" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AG138" t="inlineStr">
@@ -21968,7 +21968,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>果汁品鉴</t>
+          <t>果汁品鑒</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -21993,7 +21993,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>某新城知名苹果汁酿造厂商推出了各种果汁浓度的新品品鉴活动，一名禁闭者听说后立刻连打三十份报告要求前往参与。</t>
+          <t>某新城知名蘋果汁釀造廠商推出了各種果汁濃度的新品品鑒活動，一名禁閉者聽說後立刻連打三十份報告要求前往參與。</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -22018,7 +22018,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>毕安卡</t>
+          <t>畢安卡</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
@@ -22078,7 +22078,7 @@
       </c>
       <c r="AF139" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AG139" t="inlineStr">
@@ -22118,7 +22118,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>反诈语音</t>
+          <t>反詐語音</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -22143,7 +22143,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>近期以网恋形式展开的诈骗案件频发，新城治安局急招一名了解年轻网民喜好且声线迷人的禁闭者，录制反诈宣传语音。</t>
+          <t>近期以網戀形式展開的詐騙案件頻發，新城治安局急需一名瞭解年輕線民喜好且聲線迷人的禁閉者，錄製反詐騙宣傳語音。</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -22198,7 +22198,7 @@
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AA140" t="inlineStr">
@@ -22228,7 +22228,7 @@
       </c>
       <c r="AF140" t="inlineStr">
         <is>
-          <t>冰石粗矿</t>
+          <t>冰石粗礦</t>
         </is>
       </c>
       <c r="AG140" t="inlineStr">
@@ -22268,7 +22268,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>心动进修</t>
+          <t>心動進修</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -22293,7 +22293,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>新城某娱乐公司最新推出的蒙面恋综以“一句话，让你心动”为卖点，红极一时，某两名自恃擅长花言巧语的禁闭者主动提出欲参加新一轮海选。</t>
+          <t>新城某娛樂公司最新推出的蒙面戀綜以「一句話，讓你心動」為賣點，紅極一時，某兩名自恃擅長花言巧語的禁閉者主動提出欲參加新一輪海選。</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -22343,7 +22343,7 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>麦昆</t>
+          <t>麥昆</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
@@ -22368,7 +22368,7 @@
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
@@ -22398,7 +22398,7 @@
       </c>
       <c r="AF141" t="inlineStr">
         <is>
-          <t>冰石精矿</t>
+          <t>冰石精礦</t>
         </is>
       </c>
       <c r="AG141" t="inlineStr">
@@ -22438,7 +22438,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>劝导移居</t>
+          <t>勸導移居</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -22463,7 +22463,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>近日，有关部门下属巡逻队于内海周边巡查时，意外发现一名老人在此搭建了临时居所。因其思想迷信，队员难以沟通，急需一名熟悉当地祭祀文化者协助劝说其移居。</t>
+          <t>近日，有關部門下屬巡邏隊於內海周邊巡查時，意外發現一名老人在此搭建了臨時居所。因其思想迷信，隊員難以溝通，急需一名熟悉當地祭祀文化者協助勸說其移居。</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -22488,7 +22488,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>赫斯提亚</t>
+          <t>赫斯提亞</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
@@ -22518,7 +22518,7 @@
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>暮辉晶</t>
+          <t>暮輝晶</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr">
@@ -22548,7 +22548,7 @@
       </c>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AG142" t="inlineStr">
@@ -22588,7 +22588,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>影碟甄别</t>
+          <t>DVD甄別</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>治安局接到线报，某犯罪集团将大量违法内容伪装成复古影碟于市面流通，需派出一名涉猎广泛的相关爱好者协助辨别。</t>
+          <t>治安局接到線報，某犯罪集團將大量違法內容偽裝成復古DVD於市面流通，需派出一名涉獵廣泛的相關愛好者協助辨別。</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -22638,7 +22638,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>简</t>
+          <t>簡</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
@@ -22668,7 +22668,7 @@
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr">
@@ -22698,7 +22698,7 @@
       </c>
       <c r="AF143" t="inlineStr">
         <is>
-          <t>暮辉石粗矿</t>
+          <t>暮輝石粗礦</t>
         </is>
       </c>
       <c r="AG143" t="inlineStr">
@@ -22738,7 +22738,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>银行大劫案</t>
+          <t>銀行大劫案</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -22763,7 +22763,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>新城银行近期出现特大抢劫案件，嫌疑人作案风格与昔日备受关注的连环劫匪高度相似，疑为模仿犯罪，需要派出相关人员协助侦破。</t>
+          <t>新城銀行近期出現特大搶劫案件，嫌疑人犯案風格與昔日備受關注的連環劫匪高度相似，疑為模仿犯罪，需要派出相關人員協助偵破。</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>简</t>
+          <t>簡</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
@@ -22838,7 +22838,7 @@
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AA144" t="inlineStr">
@@ -22868,7 +22868,7 @@
       </c>
       <c r="AF144" t="inlineStr">
         <is>
-          <t>暮辉石精矿</t>
+          <t>暮輝石精礦</t>
         </is>
       </c>
       <c r="AG144" t="inlineStr">
@@ -22908,7 +22908,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>论坛管理</t>
+          <t>論壇管理</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -22933,7 +22933,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>近期，治安局计划重新启用内网论坛，当前论坛因长期欠缺管理而发帖混乱，信息真伪混杂，需要管理局派出一名熟悉相关管理工作的禁闭者帮助打理。</t>
+          <t>近期，治安局計畫重新啟用內網論壇，目前論壇因長期欠缺管理而發文混亂，資訊真偽混雜，需要管理局派出一名熟悉相關管理工作的禁閉者幫助打理。</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -23018,7 +23018,7 @@
       </c>
       <c r="AF145" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AG145" t="inlineStr">
@@ -23058,7 +23058,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>信息破译</t>
+          <t>資訊破譯</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -23083,7 +23083,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>治安局截获某犯罪团伙发送的交易信息，但其中存在大量暗网黑话和加密链接，难以短时间破译，急需熟悉相关内容者协助破解。</t>
+          <t>治安局截獲某犯罪集團發送的交易資訊，但其中存在大量暗網黑話和加密連結，難以短時間破譯，急需熟悉相關內容者協助破解。</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -23108,7 +23108,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>舒鲁玛</t>
+          <t>舒魯瑪</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -23138,7 +23138,7 @@
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
@@ -23168,7 +23168,7 @@
       </c>
       <c r="AF146" t="inlineStr">
         <is>
-          <t>红石粗矿</t>
+          <t>紅石粗礦</t>
         </is>
       </c>
       <c r="AG146" t="inlineStr">
@@ -23233,7 +23233,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>有一群小孩常在巡逻队工作的危险区域聚集玩闹，经提醒仍屡教不改，对公务执行造成了干扰。现需管理局派出两名能够快速在孩童间获取威信的禁闭者协助疏散。</t>
+          <t>有一群小孩常在巡邏隊工作的危險區域聚集玩鬧，經提醒仍屢教不改，對公務執行造成了干擾。現需管理局派出兩名能夠快速在孩童間獲得威信的禁閉者協助疏散。</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -23258,7 +23258,7 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>舒鲁玛</t>
+          <t>舒魯瑪</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
@@ -23308,7 +23308,7 @@
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
@@ -23338,7 +23338,7 @@
       </c>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>红石精矿</t>
+          <t>紅石精礦</t>
         </is>
       </c>
       <c r="AG147" t="inlineStr">
@@ -23378,7 +23378,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>科普讲座</t>
+          <t>科普講座</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -23403,7 +23403,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>近日，涅槃科技旗下著名幼儿编程机构招聘精通计算机编程的相关专家，在科普活动月中进行一节科普讲座。</t>
+          <t>近日，涅槃科技旗下著名幼兒程式設計機構招聘精通電腦程式設計的相關專家，在科普活動月中進行一堂科普講座。</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -23428,7 +23428,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>摩尔</t>
+          <t>摩爾</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
@@ -23458,7 +23458,7 @@
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>泪晶</t>
+          <t>淚晶</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
@@ -23488,7 +23488,7 @@
       </c>
       <c r="AF148" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AG148" t="inlineStr">
@@ -23528,7 +23528,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>部门整顿</t>
+          <t>部門整頓</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -23553,7 +23553,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>新城工会最近需要重新定制员工关系手册，急招一名对员工关系有深刻见解的禁闭者协助调研。</t>
+          <t>新城工會最近需要重新訂製員工關係手冊，急徵一名對員工關係有深刻見解的禁閉者協助調研。</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="AF149" t="inlineStr">
         <is>
-          <t>泪石粗矿</t>
+          <t>淚石粗礦</t>
         </is>
       </c>
       <c r="AG149" t="inlineStr">
@@ -23678,7 +23678,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>球技大赛</t>
+          <t>球技大賽</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -23703,7 +23703,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>近期，新城运动管理局举办了一场球技大赛，针对新城流行的各种球类运动都发起了一场全民竞技，现需管理局派出有相关经验人员进行参赛。</t>
+          <t>近期，新城運動管理局舉辦了一場球技大賽，針對新城流行的各種球類運動都發起了一場全民競技，現需管理局派出有相關經驗人員參賽。</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -23778,7 +23778,7 @@
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="AF150" t="inlineStr">
         <is>
-          <t>泪石精矿</t>
+          <t>淚石精礦</t>
         </is>
       </c>
       <c r="AG150" t="inlineStr">
@@ -23848,7 +23848,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>游戏测试</t>
+          <t>遊戲測試</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -23873,7 +23873,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>近日，发现有不法分子利用市面上几款游戏中的工程漏洞进行大量资源非法流转盈利操作，且该行为对游戏平衡造成了恶劣的干扰。现急需熟悉相关内容的禁闭者协助探查。</t>
+          <t>近日，發現有不法分子利用市面上幾款遊戲中的程式漏洞進行大量非法資金流轉盈利操作，且該行為對遊戲平衡造成了惡劣的干擾。現急需熟悉相關內容的禁閉者協助探查。</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -23928,7 +23928,7 @@
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>感染角质</t>
+          <t>感染角質</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="AF151" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AG151" t="inlineStr">
@@ -23998,7 +23998,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>悬赏委托</t>
+          <t>懸賞委託</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -24023,7 +24023,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>据可靠线报表示，治安局追查已久的犯罪团伙头目已逃往砂海，因其行踪成谜，治安局决定秘密发布高额悬赏，招募一位砂海本地的禁闭者参与抓捕。</t>
+          <t>據可靠線報表示，治安局追查已久的犯罪集團頭目已逃往砂海，因其行蹤成謎，治安局決定秘密發布高額懸賞，招募一位砂海本地的禁閉者參與抓捕。</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -24078,7 +24078,7 @@
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>曲铜晶</t>
+          <t>曲銅晶</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr">
@@ -24108,7 +24108,7 @@
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AG152" t="inlineStr">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>调停专家</t>
+          <t>調停專家</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -24173,7 +24173,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>新城某步行街，两处相邻店家发生激烈争执大打出手，起因为店铺之间的竞争与冲突，需要紧急派遣一位熟悉经营与冲突调停的人员，减少因暴力事件引起的财物损毁。</t>
+          <t>新城某步行街，兩處相鄰店家發生激烈爭執大打出手，起因為店舖之間的競爭與衝突，需要緊急派遣一位熟悉經營與衝突調停的人員，減少因暴力事件引起的財物損毀。</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -24228,7 +24228,7 @@
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
@@ -24258,7 +24258,7 @@
       </c>
       <c r="AF153" t="inlineStr">
         <is>
-          <t>曲铜粗矿</t>
+          <t>曲銅粗礦</t>
         </is>
       </c>
       <c r="AG153" t="inlineStr">
@@ -24323,7 +24323,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>治安局新研发的文创产品销量创史低，亏损严重，急需熟悉管理与经营的优秀人才前去指导。</t>
+          <t>治安局新研發的文創產品銷量創史低，虧損嚴重，急需熟悉管理與經營的優秀人才前去指導。</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -24398,7 +24398,7 @@
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr">
@@ -24428,7 +24428,7 @@
       </c>
       <c r="AF154" t="inlineStr">
         <is>
-          <t>曲铜精矿</t>
+          <t>曲銅精礦</t>
         </is>
       </c>
       <c r="AG154" t="inlineStr">
@@ -24468,7 +24468,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>甜品试吃</t>
+          <t>甜點試吃</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -24493,7 +24493,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>新城某知名甜品店推出当季新品，因加入致死量白砂糖而广受诟病，为挽回风评，甜品店决定举办试吃活动，一位对外邦异域风情甜品情有独钟的禁闭者主动报名。</t>
+          <t>新城某知名甜點店推出當季新品，因加入致死量砂糖而廣受詬病，為挽回風評，甜點店決定舉辦試吃活動，一位對外邦異域風情甜點情有獨鍾的禁閉者主動報名。</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -24518,7 +24518,7 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>蓝鹫</t>
+          <t>藍鷲</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
@@ -24618,7 +24618,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>模仿大赛</t>
+          <t>模仿大賽</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -24643,7 +24643,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>据可靠线报表示，治安局追查已久的网络诈骗犯即将真人现身语言模仿大赛，需派出擅长模拟他人口吻的禁闭者打入决赛圈搜集线索。</t>
+          <t>據可靠線報表示，治安局追查已久的網路詐騙犯即將真人現身語言模仿大賽，需派出擅長模擬他人口吻的禁閉者打入決賽搜集線索。</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -24768,7 +24768,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>伪装通信</t>
+          <t>偽裝通訊</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -24793,7 +24793,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>近日，某犯罪集团成员在被治安局抓捕的过程中意外受伤，失去意识，因接头信件丢失，急需擅长伪造信物的人员参与行动。</t>
+          <t>近日，某犯罪集團成員在被治安局抓捕的過程中意外受傷，失去意識，因接頭人信件遺失，急需擅長偽造信物的人員參與行動。</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -24818,7 +24818,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>麦昆</t>
+          <t>麥昆</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
@@ -24938,7 +24938,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>同类追溯</t>
+          <t>同類追溯</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -24963,7 +24963,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>近日新城关键网络频遭攻击，传言称此为一名思维回路异于常人的黑客随性所为，网安部门急需一名思维方式与其近似的禁闭者帮助预测其下一步动向。</t>
+          <t>近日新城關鍵網路頻遭攻擊，傳言稱此為一名思維異於常人的駭客隨性所為，網安部門急需一名思維方式與其近似的禁閉者幫助預測其下一步動向。</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
@@ -24988,7 +24988,7 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>派尔琪雅</t>
+          <t>派爾琪雅</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
@@ -25088,7 +25088,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>纸飞机大赛</t>
+          <t>紙飛機大賽</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -25113,7 +25113,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>新城纸飞机折叠与研究协会近日终于筹集足够资金，决定举办花式纸飞机大赛，某禁闭者听说后立刻强烈要求参与。</t>
+          <t>新城紙飛機折疊與研究協會近日終於籌集足夠資金，決定舉辦花式紙飛機大賽，某禁閉者聽說後立刻強烈要求參與。</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -25138,7 +25138,7 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>泽斐尔</t>
+          <t>澤斐爾</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
@@ -25198,7 +25198,7 @@
       </c>
       <c r="AF159" t="inlineStr">
         <is>
-          <t>破损骨片</t>
+          <t>破損骨片</t>
         </is>
       </c>
       <c r="AG159" t="inlineStr">
@@ -25238,7 +25238,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>人脉需求</t>
+          <t>人脈需求</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -25263,7 +25263,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>治安局收到线报，一犯罪团伙以零工为借口，雇佣新城和西区的底层群众分散运输违禁品进入狄斯，现急需在此类人群中人脉较广的禁闭者打探详情。</t>
+          <t>治安局收到線報，一犯罪集團以零工為藉口，雇傭新城和西區的底層群眾分散運輸違禁品進入狄斯，現急需在此類人群中人脈較廣的禁閉者打探詳情。</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -25288,7 +25288,7 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>泽斐尔</t>
+          <t>澤斐爾</t>
         </is>
       </c>
       <c r="Q160" t="inlineStr">
@@ -25408,7 +25408,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>礼仪指导</t>
+          <t>禮儀指導</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -25433,7 +25433,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>管理局部分工作人员需随同上级，参与新城某贵族的家族宴会。为确保万无一失，现需接受赴宴相关的礼仪指导。</t>
+          <t>管理局部分工作人員需隨同上級，參與新城某貴族的家族宴會。為確保萬無一失，現需接受赴宴相關的禮儀指導。</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -25458,7 +25458,7 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>耶莱娜</t>
+          <t>耶萊娜</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
@@ -25488,7 +25488,7 @@
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>感染角质</t>
+          <t>感染角質</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr">
@@ -25518,7 +25518,7 @@
       </c>
       <c r="AF161" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AG161" t="inlineStr">
@@ -25558,7 +25558,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>热点简评</t>
+          <t>熱門話題評論</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -25583,7 +25583,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>某娱乐公司计划开设一档点评时事的全新节目，目前正在征集大量言辞犀利、吸人眼球的稿件。</t>
+          <t>某娛樂公司計畫開設一檔時事評論的全新節目，目前正在徵集大量言辭犀利、博人眼球的稿件。</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -25638,7 +25638,7 @@
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AA162" t="inlineStr">
@@ -25668,7 +25668,7 @@
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>断裂角质</t>
+          <t>斷裂角質</t>
         </is>
       </c>
       <c r="AG162" t="inlineStr">
@@ -25708,7 +25708,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>音频修复</t>
+          <t>音檔修復</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -25733,7 +25733,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>存有关键线索的音频意外损坏，管理局应治安局所求，派出熟悉录音流程与电子设备的禁闭者协助修复。</t>
+          <t>存有關鍵線索的音檔意外損壞，管理局應治安局所求，派出熟悉錄音流程與電子設備的禁閉者協助修復。</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -25808,7 +25808,7 @@
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AA163" t="inlineStr">
@@ -25838,7 +25838,7 @@
       </c>
       <c r="AF163" t="inlineStr">
         <is>
-          <t>原生角质</t>
+          <t>原生角質</t>
         </is>
       </c>
       <c r="AG163" t="inlineStr">
@@ -25878,7 +25878,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>专业对口</t>
+          <t>專業對口</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -25903,7 +25903,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>FAC监测到新城某高校内M值异常上升，初步调查得知，该校学生间正流行着举办通灵故事会的课后活动，特向管理局申请派一位合适的禁闭者协助探查真相。</t>
+          <t>FAC監測到新城某高校內M值異常上升，初步調查得知，該校學生間正流行著舉辦通靈故事會的課後活動，特向管理局申請派一位合適的禁閉者協助探查真相。</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -25958,7 +25958,7 @@
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>感染凝胶</t>
+          <t>感染凝膠</t>
         </is>
       </c>
       <c r="AA164" t="inlineStr">
@@ -25988,7 +25988,7 @@
       </c>
       <c r="AF164" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AG164" t="inlineStr">
@@ -26053,7 +26053,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>季节交替，多地爆发流感，意识到这是天降的功德，某位禁闭者强烈要求外出义诊。</t>
+          <t>季節交替，多地爆發流感，意識到這是天降的功德，某位禁閉者強烈要求外出義診。</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -26078,7 +26078,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>无患子</t>
+          <t>無患子</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
@@ -26108,7 +26108,7 @@
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="AF165" t="inlineStr">
         <is>
-          <t>悬浊凝胶</t>
+          <t>懸濁凝膠</t>
         </is>
       </c>
       <c r="AG165" t="inlineStr">
@@ -26178,7 +26178,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>随行保镖</t>
+          <t>隨行保鑣</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -26203,7 +26203,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>彼岸发来邀请，希望能与某位禁闭者就东洲本土医术进行学术探讨，鉴于该禁闭者非本地人，需要一位熟悉从管理局到辛迪加路线且年龄相仿的禁闭者陪同上路。</t>
+          <t>彼岸發來邀請，希望能與某位禁閉者就東洲本土醫術進行學術探討，鑒於該禁閉者非本地人，需要一位熟悉從管理局到辛迪加路線且年齡相仿的禁閉者陪同上路。</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
@@ -26228,7 +26228,7 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>无患子</t>
+          <t>無患子</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
@@ -26278,7 +26278,7 @@
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr">
@@ -26308,7 +26308,7 @@
       </c>
       <c r="AF166" t="inlineStr">
         <is>
-          <t>原生凝胶</t>
+          <t>原生凝膠</t>
         </is>
       </c>
       <c r="AG166" t="inlineStr">
@@ -26348,7 +26348,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>花车仙子</t>
+          <t>花車仙子</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -26373,7 +26373,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>治安局收到一封游乐园纵火预告信，发信人疑似持有狂厄武器，急需一位精通幻术的禁闭者扮成花车仙子，协助治安局控制局面并将游客引导至安全地带。</t>
+          <t>治安局收到一封遊樂園縱火預告信，發信人疑似持有狂厄武器，急需一位精通幻術的禁閉者扮成花車仙子，協助治安局控制局面並將遊客引導至安全地帶。</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -26398,7 +26398,7 @@
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>萦萦</t>
+          <t>縈縈</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
@@ -26498,7 +26498,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>梦的解析</t>
+          <t>夢的解析</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -26523,7 +26523,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -26578,7 +26578,7 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>毒砂精矿</t>
+          <t>毒砂精礦</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr">
@@ -26608,7 +26608,7 @@
       </c>
       <c r="AF168" t="inlineStr">
         <is>
-          <t>毒砂粗矿</t>
+          <t>毒砂粗礦</t>
         </is>
       </c>
       <c r="AG168" t="inlineStr">

--- a/Sinner_Stuff/dispatch.xlsx
+++ b/Sinner_Stuff/dispatch.xlsx
@@ -26474,86 +26474,86 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1099001</v>
+        <v>1052001</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Dream Interpretation</t>
+          <t>Unconventional Wedding</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>夢の解析</t>
+          <t>ニッチな結婚式</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>꿈의 해석</t>
+          <t>독특한 결혼식</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>梦的解析</t>
+          <t>小众婚礼</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>夢的解析</t>
+          <t>小眾婚禮</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+          <t>A rich heiress from Eastside known for her unconventional hobbies has recently gotten engaged and is planning a paranormal-themed wedding. This has caused many wedding planners to back away from the project. When the news reaches the Bureau, a certain Sinner seems very intrigued.</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+          <t>ニューシティのとある名家の令嬢は、ニッチな趣味を持つことで知られている。彼女は最近婚約したばかりで、幽霊をテーマにした結婚式を希望しており、多くのウェディングプランナーが尻込みしている。その噂が管理局に届くと、あるコンビクトが強い関心を示した。</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+          <t>신성의 어느 귀족 집안 아가씨는 독특한 취미로 이름이 높았다. 최근 약혼한 그녀는 오컬트 테마의 결혼식을 원했고, 이는 수많은 웨딩 플래너들을 난처하게 했다. 이 소식을 들은 한 수감자가 큰 흥미를 보였다.</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+          <t>新城某贵族千金以爱好小众而闻名，她刚刚订婚，计划为自己办一场灵异主题的婚礼，这叫许多婚礼策划人望而却步。消息传到管理局，某位禁闭者表现出了不小的兴趣。</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+          <t>新城某貴族千金以愛好小眾而聞名，她剛剛訂婚，計畫為自己辦一場靈異主題的婚禮，這叫許多婚禮企劃人望而卻步。消息傳到管理局，某位禁閉者表現出了不小的興趣。</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>Hecate</t>
+          <t>Graves</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>ヘカテー</t>
+          <t>グレイヴ</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>헤카테</t>
+          <t>그레이브</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>格芮芙</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>格芮芙</t>
         </is>
       </c>
       <c r="R168" t="inlineStr"/>
@@ -26563,60 +26563,530 @@
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr">
         <is>
+          <t>Infected Elytra</t>
+        </is>
+      </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>感染鞘翅</t>
+        </is>
+      </c>
+      <c r="Y168" t="inlineStr">
+        <is>
+          <t>오염된 겉날개</t>
+        </is>
+      </c>
+      <c r="Z168" t="inlineStr">
+        <is>
+          <t>感染鞘翅</t>
+        </is>
+      </c>
+      <c r="AA168" t="inlineStr">
+        <is>
+          <t>感染鞘翅</t>
+        </is>
+      </c>
+      <c r="AB168" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC168" t="inlineStr">
+        <is>
+          <t>Organic Elytra</t>
+        </is>
+      </c>
+      <c r="AD168" t="inlineStr">
+        <is>
+          <t>原生鞘翅</t>
+        </is>
+      </c>
+      <c r="AE168" t="inlineStr">
+        <is>
+          <t>원시적 겉날개</t>
+        </is>
+      </c>
+      <c r="AF168" t="inlineStr">
+        <is>
+          <t>原生鞘翅</t>
+        </is>
+      </c>
+      <c r="AG168" t="inlineStr">
+        <is>
+          <t>原生鞘翅</t>
+        </is>
+      </c>
+      <c r="AH168" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1052002</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Home Makeover</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>住宅改造</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>주택 개조</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>房屋改造</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>房屋改造</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>A real estate company has several haunted houses they simply can't sell off, no matter what they try. They're willing to pay a high price for someone to help resolve this desperate situation. Upon hearing this, a certain Sinner eagerly volunteers.</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>ある不動産会社が、なかなか売れない事故物件を複数抱えており、高額な報酬で対応できる人材を探している。それを聞いたあるコンビクトが積極的に参加を申し出た。</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>한 부동산 업체가 여러 개의 흉가 매물을 가지고 있었는데, 아무리 노력해도 팔리지 않아 흉가 매물을 처리해 주는 사람에게 후한 보상을 주겠다고 약속했다. 이 소식을 들은 한 수감자가 적극적으로 이에 지원했다.</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>某房地产公司手头有好几间凶宅，无论如何也抛售不出，希望有人能为他们解决燃眉之急，奖金丰厚。某禁闭者听说后积极要求参与。</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>某房地產公司手頭有好幾間凶宅，無論如何也拋售不出，希望有人能為他們解決燃眉之急，獎金豐厚。某禁閉者聽說後積極要求參與。</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>Luminita</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>ルミニタ</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>루미니타</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>卢米尼塔</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>盧米尼塔</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr">
+        <is>
+          <t>Organic Elytra</t>
+        </is>
+      </c>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>原生鞘翅</t>
+        </is>
+      </c>
+      <c r="Y169" t="inlineStr">
+        <is>
+          <t>원시적 겉날개</t>
+        </is>
+      </c>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>原生鞘翅</t>
+        </is>
+      </c>
+      <c r="AA169" t="inlineStr">
+        <is>
+          <t>原生鞘翅</t>
+        </is>
+      </c>
+      <c r="AB169" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC169" t="inlineStr">
+        <is>
+          <t>Elytra Shard</t>
+        </is>
+      </c>
+      <c r="AD169" t="inlineStr">
+        <is>
+          <t>鞘翅の破片</t>
+        </is>
+      </c>
+      <c r="AE169" t="inlineStr">
+        <is>
+          <t>겉날개 파편</t>
+        </is>
+      </c>
+      <c r="AF169" t="inlineStr">
+        <is>
+          <t>鞘翅残片</t>
+        </is>
+      </c>
+      <c r="AG169" t="inlineStr">
+        <is>
+          <t>鞘翅殘片</t>
+        </is>
+      </c>
+      <c r="AH169" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1052003</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Dis Haunt</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>戦慄の映画製作</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>공포 전문가</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>月光光心慌慌</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>月光光心慌慌</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>A prominent Eastside director has just announced a new horror film project. They are now urgently recruiting consultants savvy in paranormal phenomena to join the crew.</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>最近、ニューシティのとある有名監督の最新ホラー映画が準備段階の初期に入ったと発表された。現在、撮影協力として霊的分野の専門アドバイザーを多数急募している。</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>최근 신성의 한 유명 감독이 차기 공포 영화 제작을 공식 발표했고 현재 기괴한 현상에 대해 잘 알고 있는 전문가를 급히 모집하고 있다.</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>近日，新城某知名导演的最新恐怖大片宣布进入早期筹备阶段，现正急招多名灵异方面的专业顾问协助拍摄。</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>近日，新城某知名導演的最新恐怖大片宣佈進入早期籌備階段，現正急招多名靈異方面的專業顧問協助拍攝。</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Luminita</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>ルミニタ</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>루미니타</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>卢米尼塔</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>盧米尼塔</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Letta</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>レタ</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>레타</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>莱塔</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>萊塔</t>
+        </is>
+      </c>
+      <c r="W170" t="inlineStr">
+        <is>
+          <t>Organic Elytra</t>
+        </is>
+      </c>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>原生鞘翅</t>
+        </is>
+      </c>
+      <c r="Y170" t="inlineStr">
+        <is>
+          <t>원시적 겉날개</t>
+        </is>
+      </c>
+      <c r="Z170" t="inlineStr">
+        <is>
+          <t>原生鞘翅</t>
+        </is>
+      </c>
+      <c r="AA170" t="inlineStr">
+        <is>
+          <t>原生鞘翅</t>
+        </is>
+      </c>
+      <c r="AB170" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC170" t="inlineStr">
+        <is>
+          <t>Organic Elytra</t>
+        </is>
+      </c>
+      <c r="AD170" t="inlineStr">
+        <is>
+          <t>原生鞘翅</t>
+        </is>
+      </c>
+      <c r="AE170" t="inlineStr">
+        <is>
+          <t>원시적 겉날개</t>
+        </is>
+      </c>
+      <c r="AF170" t="inlineStr">
+        <is>
+          <t>原生鞘翅</t>
+        </is>
+      </c>
+      <c r="AG170" t="inlineStr">
+        <is>
+          <t>原生鞘翅</t>
+        </is>
+      </c>
+      <c r="AH170" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1099001</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Dream Interpretation</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>夢の解析</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>꿈의 해석</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>梦的解析</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>夢的解析</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Hecate</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>ヘカテー</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>헤카테</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr">
+        <is>
           <t>Arsenopyrite Concentrate</t>
         </is>
       </c>
-      <c r="X168" t="inlineStr">
+      <c r="X171" t="inlineStr">
         <is>
           <t>毒砂の精鉱</t>
         </is>
       </c>
-      <c r="Y168" t="inlineStr">
+      <c r="Y171" t="inlineStr">
         <is>
           <t>정교한 독모래 광석</t>
         </is>
       </c>
-      <c r="Z168" t="inlineStr">
+      <c r="Z171" t="inlineStr">
         <is>
           <t>毒砂精矿</t>
         </is>
       </c>
-      <c r="AA168" t="inlineStr">
+      <c r="AA171" t="inlineStr">
         <is>
           <t>毒砂精礦</t>
         </is>
       </c>
-      <c r="AB168" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AC168" t="inlineStr">
+      <c r="AB171" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC171" t="inlineStr">
         <is>
           <t>Arsenopyrite Raw Ore</t>
         </is>
       </c>
-      <c r="AD168" t="inlineStr">
+      <c r="AD171" t="inlineStr">
         <is>
           <t>毒砂の原鉱</t>
         </is>
       </c>
-      <c r="AE168" t="inlineStr">
+      <c r="AE171" t="inlineStr">
         <is>
           <t>거친 독모래 광석</t>
         </is>
       </c>
-      <c r="AF168" t="inlineStr">
+      <c r="AF171" t="inlineStr">
         <is>
           <t>毒砂粗矿</t>
         </is>
       </c>
-      <c r="AG168" t="inlineStr">
+      <c r="AG171" t="inlineStr">
         <is>
           <t>毒砂粗礦</t>
         </is>
       </c>
-      <c r="AH168" t="inlineStr">
+      <c r="AH171" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>

--- a/Sinner_Stuff/dispatch.xlsx
+++ b/Sinner_Stuff/dispatch.xlsx
@@ -26944,86 +26944,86 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1099001</v>
+        <v>1053001</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Dream Interpretation</t>
+          <t>Academic Exchange</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>夢の解析</t>
+          <t>学術交流</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>꿈의 해석</t>
+          <t>학술 교류</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>梦的解析</t>
+          <t>学术交流</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>夢的解析</t>
+          <t>學術交流</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+          <t>The Bureau is planning to organize an internal scientific conference to share cutting-edge developments from the scientific community, and has extended a special invitation to a particular Sinner.</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+          <t>最近、学界の第一線の情報を共有するため、管理局は内部科学交流会の開催を計画しており、特別にとあるコンビクトを招待した。</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+          <t>최근 학계의 최신 정보를 얻기 위해 관리국은 내부 과학 교류회를 열기로 했고, 특별히 한 수감자를 초청했다.</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+          <t>近日，管理局计划组织一次内部科学交流会，分享学界的前沿资讯，特别邀请了某位禁闭者参加。</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+          <t>近日，管理局計畫組織一次內部科學交流會，分享學界的最新資訊，特別邀請了某位禁閉者參加。</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Hecate</t>
+          <t>Hypatia</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>ヘカテー</t>
+          <t>ヒパティア</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>헤카테</t>
+          <t>히파티아</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>伊帕希娅</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>伊帕希婭</t>
         </is>
       </c>
       <c r="R171" t="inlineStr"/>
@@ -27033,60 +27033,530 @@
       <c r="V171" t="inlineStr"/>
       <c r="W171" t="inlineStr">
         <is>
+          <t>Arsenopyrite Crystal</t>
+        </is>
+      </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>毒砂結晶</t>
+        </is>
+      </c>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t>독모래 결정</t>
+        </is>
+      </c>
+      <c r="Z171" t="inlineStr">
+        <is>
+          <t>毒砂晶</t>
+        </is>
+      </c>
+      <c r="AA171" t="inlineStr">
+        <is>
+          <t>毒砂晶</t>
+        </is>
+      </c>
+      <c r="AB171" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC171" t="inlineStr">
+        <is>
           <t>Arsenopyrite Concentrate</t>
         </is>
       </c>
-      <c r="X171" t="inlineStr">
+      <c r="AD171" t="inlineStr">
         <is>
           <t>毒砂の精鉱</t>
         </is>
       </c>
-      <c r="Y171" t="inlineStr">
+      <c r="AE171" t="inlineStr">
         <is>
           <t>정교한 독모래 광석</t>
         </is>
       </c>
-      <c r="Z171" t="inlineStr">
+      <c r="AF171" t="inlineStr">
         <is>
           <t>毒砂精矿</t>
         </is>
       </c>
-      <c r="AA171" t="inlineStr">
+      <c r="AG171" t="inlineStr">
         <is>
           <t>毒砂精礦</t>
         </is>
       </c>
-      <c r="AB171" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AC171" t="inlineStr">
+      <c r="AH171" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1053002</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Tomb Raiding Professional</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>盗掘職人</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>도굴 장인</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>倒斗匠人</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>盜墓匠人</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>While patrolling the outskirts of DisCity, the patrol discovered a suspicious pit. The Bureau now needs to send a Sinner with relevant excavation experience to assist with the investigation.</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>パトロール隊がディスシティの外周を巡回中、不審な深い穴を発見した。管理局は現在、調査に協力するため、関連作業の経験を持つコンビクトを派遣する必要がある。</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>순찰대가 디스시티 외곽을 순찰하던 중, 의문스러운 구덩이 하나를 발견했다. 관리국에서 관련 작업 경험이 있는 수감자를 파견해 조사 작업을 도와야 한다.</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>巡逻队于狄斯城外围巡查时发现一处可疑深坑，现需管理局派出一名有相关作业经验的禁闭者协助探查工作。</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>巡邏隊於狄斯城外圍巡查時發現一處可疑深坑，現需管理局派出一名有相關作業經驗的禁閉者協助探查工作。</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Lysandra</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>リサロ</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>리산드라</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>黎莎洛</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>黎莎洛</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr">
+        <is>
+          <t>Arsenopyrite Concentrate</t>
+        </is>
+      </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>毒砂の精鉱</t>
+        </is>
+      </c>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>정교한 독모래 광석</t>
+        </is>
+      </c>
+      <c r="Z172" t="inlineStr">
+        <is>
+          <t>毒砂精矿</t>
+        </is>
+      </c>
+      <c r="AA172" t="inlineStr">
+        <is>
+          <t>毒砂精礦</t>
+        </is>
+      </c>
+      <c r="AB172" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC172" t="inlineStr">
         <is>
           <t>Arsenopyrite Raw Ore</t>
         </is>
       </c>
-      <c r="AD171" t="inlineStr">
+      <c r="AD172" t="inlineStr">
         <is>
           <t>毒砂の原鉱</t>
         </is>
       </c>
-      <c r="AE171" t="inlineStr">
+      <c r="AE172" t="inlineStr">
         <is>
           <t>거친 독모래 광석</t>
         </is>
       </c>
-      <c r="AF171" t="inlineStr">
+      <c r="AF172" t="inlineStr">
         <is>
           <t>毒砂粗矿</t>
         </is>
       </c>
-      <c r="AG171" t="inlineStr">
+      <c r="AG172" t="inlineStr">
         <is>
           <t>毒砂粗礦</t>
         </is>
       </c>
-      <c r="AH171" t="inlineStr">
+      <c r="AH172" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1053003</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DisCity Appraisal</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>ディス宝物鑑定</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>디스 보물 감정</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>狄斯鉴宝</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>狄斯鑒寶</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>The Public Security Bureau recently confiscated a collection of ancient artifacts contaminated with Mania from the black market. Some fakes are mixed among them, which must be destroyed immediately. They require assistance of several Sinners skilled in artifact and artwork appraisal.</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>最近、治安局は闇市で狂瞳病に汚染された古代美術品を押収した。その中には贋作も混じっており、直接破棄する必要がある。美術品や古代遺物の鑑定に長けたコンビクト数名の協力が必要だ。</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>치안국은 최근 암시장에서 변이에 오염된 고대 예술품을 압수했고, 그중에는 위조품도 섞여 있어 즉시 폐기 조치가 필요하다. 이에 따라 유물 및 예술품 감정에 능숙한 수감자 몇 명의 협조가 필요하다.</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>治安局近日在黑市缴获一批受狂厄污染的古代艺术品，其中混有赝品，需直接销毁，现需几名擅长文物及艺术品鉴定的禁闭者协助工作。</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>治安局近日在黑市繳獲一批受狂厄汙染的古代藝術品，其中混有贗品，需直接銷毀，現需幾名擅長文物及藝術品鑑定的禁閉者協助工作。</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Lysandra</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>リサロ</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>리산드라</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>黎莎洛</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>黎莎洛</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>McQueen</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>マックイーン</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>맥퀸</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>麦昆</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>麥昆</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>Arsenopyrite Concentrate</t>
+        </is>
+      </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>毒砂の精鉱</t>
+        </is>
+      </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>정교한 독모래 광석</t>
+        </is>
+      </c>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>毒砂精矿</t>
+        </is>
+      </c>
+      <c r="AA173" t="inlineStr">
+        <is>
+          <t>毒砂精礦</t>
+        </is>
+      </c>
+      <c r="AB173" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC173" t="inlineStr">
+        <is>
+          <t>Arsenopyrite Concentrate</t>
+        </is>
+      </c>
+      <c r="AD173" t="inlineStr">
+        <is>
+          <t>毒砂の精鉱</t>
+        </is>
+      </c>
+      <c r="AE173" t="inlineStr">
+        <is>
+          <t>정교한 독모래 광석</t>
+        </is>
+      </c>
+      <c r="AF173" t="inlineStr">
+        <is>
+          <t>毒砂精矿</t>
+        </is>
+      </c>
+      <c r="AG173" t="inlineStr">
+        <is>
+          <t>毒砂精礦</t>
+        </is>
+      </c>
+      <c r="AH173" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1099001</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Dream Interpretation</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>夢の解析</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>꿈의 해석</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>梦的解析</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>夢的解析</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Hecate</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>ヘカテー</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>헤카테</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>Arsenopyrite Concentrate</t>
+        </is>
+      </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>毒砂の精鉱</t>
+        </is>
+      </c>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>정교한 독모래 광석</t>
+        </is>
+      </c>
+      <c r="Z174" t="inlineStr">
+        <is>
+          <t>毒砂精矿</t>
+        </is>
+      </c>
+      <c r="AA174" t="inlineStr">
+        <is>
+          <t>毒砂精礦</t>
+        </is>
+      </c>
+      <c r="AB174" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC174" t="inlineStr">
+        <is>
+          <t>Arsenopyrite Raw Ore</t>
+        </is>
+      </c>
+      <c r="AD174" t="inlineStr">
+        <is>
+          <t>毒砂の原鉱</t>
+        </is>
+      </c>
+      <c r="AE174" t="inlineStr">
+        <is>
+          <t>거친 독모래 광석</t>
+        </is>
+      </c>
+      <c r="AF174" t="inlineStr">
+        <is>
+          <t>毒砂粗矿</t>
+        </is>
+      </c>
+      <c r="AG174" t="inlineStr">
+        <is>
+          <t>毒砂粗礦</t>
+        </is>
+      </c>
+      <c r="AH174" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>

--- a/Sinner_Stuff/dispatch.xlsx
+++ b/Sinner_Stuff/dispatch.xlsx
@@ -18388,7 +18388,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>新城治安局因故需派出警員裝扮成貴族小姐進行潛入搜查，需要精通服裝搭配和香氛鑒賞的禁閉者支援。</t>
+          <t>新城治安局因故需派出警員裝扮成貴族小姐進行潛入搜查，需要精通服裝搭配和香氛鑑賞的禁閉者支援。</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -27414,86 +27414,86 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1099001</v>
+        <v>1054001</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Dream Interpretation</t>
+          <t>Friends in High Places</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>夢の解析</t>
+          <t>社会で頼れるのは友</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>꿈의 해석</t>
+          <t>든든한 친구</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>梦的解析</t>
+          <t>出门靠朋友</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>夢的解析</t>
+          <t>出門靠朋友</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+          <t>According to intelligence reports, an Eastside tycoon is covertly financing a Mania weapons smuggling ring. The Bureau will dispatch undercover agents to infiltrate their network for further investigation. To gain access, an introduction from a high-society insider will be required.</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+          <t>情報筋の話によると、ニューシティのとある富豪が狂瞳武器の密輸組織に密かに資金提供をしているという。管理局はその社交圏に作戦メンバーを潜入させる予定で、現在その富豪を紹介してくれる上流階級の名士を探している。</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+          <t>정보원에 따르면 신성의 어느 한 부자가 암암리에 변이 무기 밀수 조직을 지원한다고 한다. 이에 따라 관리국은 작전 요원을 해당 인물의 사교계에 잠입시켜 조사를 진행할 예정이며, 현재 상류층 내에서 명망 있는 인물의 소개가 필요한 상황이다.</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+          <t>据线报称，新城某富豪暗中资助狂厄武器走私组织，管理局将派出行动人员潜伏进入其社交圈进行调查，现需上流阶层有名望的人士为其引荐。</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+          <t>據線報稱，新城某富豪暗中資助狂厄武器走私組織，管理局將派出行動人員潛伏進入其社交圈進行調查，現需上流階層有名望的人士為其引薦。</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Hecate</t>
+          <t>Parfait</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>ヘカテー</t>
+          <t>パフェ</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>헤카테</t>
+          <t>파르·페</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>芭·菲</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>芭·菲</t>
         </is>
       </c>
       <c r="R174" t="inlineStr"/>
@@ -27503,60 +27503,680 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr">
         <is>
+          <t>Infected Cyst</t>
+        </is>
+      </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>感染された嚢胞</t>
+        </is>
+      </c>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>감염된 낭포</t>
+        </is>
+      </c>
+      <c r="Z174" t="inlineStr">
+        <is>
+          <t>感染囊胞</t>
+        </is>
+      </c>
+      <c r="AA174" t="inlineStr">
+        <is>
+          <t>感染囊胞</t>
+        </is>
+      </c>
+      <c r="AB174" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC174" t="inlineStr">
+        <is>
+          <t>Organic Cyst</t>
+        </is>
+      </c>
+      <c r="AD174" t="inlineStr">
+        <is>
+          <t>原生嚢胞</t>
+        </is>
+      </c>
+      <c r="AE174" t="inlineStr">
+        <is>
+          <t>원시적 낭포</t>
+        </is>
+      </c>
+      <c r="AF174" t="inlineStr">
+        <is>
+          <t>原生囊胞</t>
+        </is>
+      </c>
+      <c r="AG174" t="inlineStr">
+        <is>
+          <t>原生囊胞</t>
+        </is>
+      </c>
+      <c r="AH174" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1054002</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Deadly Dance Party</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>死を招くダンス大会</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>죽음의 무도회</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>夺命舞会</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>奪命舞會</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Eastside is currently hosting a dance competition. Since the event began, M-values within the venue have been fluctuating abnormally. FAC has requested that the Bureau deploy a Sinner skilled in dance to accompany operatives for undercover investigation.</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>ニューシティでは最近ダンス大会が開催されているが、大会開始以来、会場内のM値が異常な波動を見せ続けている。FACは管理局に対し、ダンスに長けたコンビクトを作戦メンバーと共に潜入調査へ派遣するよう要請した。</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>최근 신성에서 무용 대회를 개최하고 있다. 대회 시작 이후 경기장 내 M 수치가 지속적으로 비정상적인 파동을 보이고 있다. 이에 FAC는 관리국에 무용에 능한 수감자를 파견해 작전 요원과 함께 잠입 조사를 해달라고 요청했다.</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>新城近日正在举办舞蹈大会，自开赛以来，场馆内M值一直波动异常，FAC向管理局申请派出一位擅长舞蹈的禁闭者随行动人员潜入调查。</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>新城近日正在舉辦舞蹈大會，自開賽以來，場館內M值一直波動異常，FAC向管理局申請派出一位擅長舞蹈的禁閉者隨行動人員潛入調查。</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Jasmine</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>ジャスミン</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>자스민</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>茉莉</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>茉莉</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t>Ice Crystal</t>
+        </is>
+      </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>氷晶</t>
+        </is>
+      </c>
+      <c r="Y175" t="inlineStr">
+        <is>
+          <t>얼음 결정</t>
+        </is>
+      </c>
+      <c r="Z175" t="inlineStr">
+        <is>
+          <t>冰晶</t>
+        </is>
+      </c>
+      <c r="AA175" t="inlineStr">
+        <is>
+          <t>冰晶</t>
+        </is>
+      </c>
+      <c r="AB175" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC175" t="inlineStr">
+        <is>
+          <t>Ice Stone Concentrate</t>
+        </is>
+      </c>
+      <c r="AD175" t="inlineStr">
+        <is>
+          <t>氷の精鉱</t>
+        </is>
+      </c>
+      <c r="AE175" t="inlineStr">
+        <is>
+          <t>정교한 얼음석 광석</t>
+        </is>
+      </c>
+      <c r="AF175" t="inlineStr">
+        <is>
+          <t>冰石精矿</t>
+        </is>
+      </c>
+      <c r="AG175" t="inlineStr">
+        <is>
+          <t>冰石精礦</t>
+        </is>
+      </c>
+      <c r="AH175" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1054003</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Hidden Attraction</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>不人気スポット</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>비인기 여행지</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>冷门景点</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>冷門景點</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>To raise residents' awareness of Eastside's public security institutions, the Public Security Bureau recently organized a one-day tour event. However, participation has been low, and a popular influencer is now needed to boost engagement.</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>ニューシティの治安管理機関に対する市民の理解を深めるため、治安局は最近一日見学イベントの開催を発表した。しかし応募者が少ないため、現在イベントの宣伝を担当する人気インフルエンサーを求めている。</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>신성 치안 관리 기관에 대한 주민들의 이해를 높이기 위해 치안국에서 최근 일일 견학 프로그램을 기획했으나, 신청 인원이 매우 저조한 상황이다. 이에 따라 본 프로그램의 홍보를 맡아줄 인기 인플루언서의 도움이 필요하다.</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>为提升居民对新城治安管理机构的了解，治安局近期开展了一日参观活动，但报名者寥寥，现需一名人气博主为活动进行宣传。</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>為提升居民對新城治安管理機構的瞭解，治安局近期開展了一日參觀活動，但報名者寥寥，現需一名人氣網紅為活動進行宣傳。</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>Thalia</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>タリア</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>탈리아</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>塔利娅</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>塔利婭</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr">
+        <is>
+          <t>Ice Stone Concentrate</t>
+        </is>
+      </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>氷の精鉱</t>
+        </is>
+      </c>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>정교한 얼음석 광석</t>
+        </is>
+      </c>
+      <c r="Z176" t="inlineStr">
+        <is>
+          <t>冰石精矿</t>
+        </is>
+      </c>
+      <c r="AA176" t="inlineStr">
+        <is>
+          <t>冰石精礦</t>
+        </is>
+      </c>
+      <c r="AB176" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC176" t="inlineStr">
+        <is>
+          <t>Ice Stone Raw Ore</t>
+        </is>
+      </c>
+      <c r="AD176" t="inlineStr">
+        <is>
+          <t>氷の原鉱</t>
+        </is>
+      </c>
+      <c r="AE176" t="inlineStr">
+        <is>
+          <t>거친 얼음석 광석</t>
+        </is>
+      </c>
+      <c r="AF176" t="inlineStr">
+        <is>
+          <t>冰石粗矿</t>
+        </is>
+      </c>
+      <c r="AG176" t="inlineStr">
+        <is>
+          <t>冰石粗礦</t>
+        </is>
+      </c>
+      <c r="AH176" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1054004</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Top Influencer</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>トップ100インフルエンサー</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>인플루언서 TOP 100</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>百大博主</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>百大網紅</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Recently, several online influencers in Eastside have mysteriously disappeared after attending industry gatherings. The Bureau urgently needs to deploy a Sinner with established recognition in the influencer community for undercover investigation.</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>最近、ニューシティでは業界の集まりに招待された複数のインフルエンサーが謎の失踪を遂げる事件が相次いでいる。管理局は、インフルエンサー界隈である程度の知名度を持つコンビクトを潜入調査に派遣する必要がある。</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>최근, 신성의 여러 유명 블로거가 업계 모임에 초청받은 후 실종되었다. 관리국에서 신속히 인플루언서 업계에서 유명한 수감자를 파견해 잠복 조사를 진행해야 한다.</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>近期，新城多名网络博主在受邀参与业内聚会后神秘失踪，急需管理局派出在网红界小有名气的禁闭者卧底调查。</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>近期，新城多名網紅在受邀參與業內聚會後神秘失蹤，急需管理局派出在網紅界小有名氣的禁閉者臥底調查。</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>Thalia</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>タリア</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>탈리아</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>塔利娅</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>塔利婭</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Nino</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>ニノ</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>니노</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>妮诺</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>妮諾</t>
+        </is>
+      </c>
+      <c r="W177" t="inlineStr">
+        <is>
+          <t>Ice Stone Concentrate</t>
+        </is>
+      </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>氷の精鉱</t>
+        </is>
+      </c>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>정교한 얼음석 광석</t>
+        </is>
+      </c>
+      <c r="Z177" t="inlineStr">
+        <is>
+          <t>冰石精矿</t>
+        </is>
+      </c>
+      <c r="AA177" t="inlineStr">
+        <is>
+          <t>冰石精礦</t>
+        </is>
+      </c>
+      <c r="AB177" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC177" t="inlineStr">
+        <is>
+          <t>Ice Stone Concentrate</t>
+        </is>
+      </c>
+      <c r="AD177" t="inlineStr">
+        <is>
+          <t>氷の精鉱</t>
+        </is>
+      </c>
+      <c r="AE177" t="inlineStr">
+        <is>
+          <t>정교한 얼음석 광석</t>
+        </is>
+      </c>
+      <c r="AF177" t="inlineStr">
+        <is>
+          <t>冰石精矿</t>
+        </is>
+      </c>
+      <c r="AG177" t="inlineStr">
+        <is>
+          <t>冰石精礦</t>
+        </is>
+      </c>
+      <c r="AH177" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1099001</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Dream Interpretation</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>夢の解析</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>꿈의 해석</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>梦的解析</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>夢的解析</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+        </is>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>Hecate</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>ヘカテー</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>헤카테</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr">
+        <is>
           <t>Arsenopyrite Concentrate</t>
         </is>
       </c>
-      <c r="X174" t="inlineStr">
+      <c r="X178" t="inlineStr">
         <is>
           <t>毒砂の精鉱</t>
         </is>
       </c>
-      <c r="Y174" t="inlineStr">
+      <c r="Y178" t="inlineStr">
         <is>
           <t>정교한 독모래 광석</t>
         </is>
       </c>
-      <c r="Z174" t="inlineStr">
+      <c r="Z178" t="inlineStr">
         <is>
           <t>毒砂精矿</t>
         </is>
       </c>
-      <c r="AA174" t="inlineStr">
+      <c r="AA178" t="inlineStr">
         <is>
           <t>毒砂精礦</t>
         </is>
       </c>
-      <c r="AB174" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AC174" t="inlineStr">
+      <c r="AB178" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC178" t="inlineStr">
         <is>
           <t>Arsenopyrite Raw Ore</t>
         </is>
       </c>
-      <c r="AD174" t="inlineStr">
+      <c r="AD178" t="inlineStr">
         <is>
           <t>毒砂の原鉱</t>
         </is>
       </c>
-      <c r="AE174" t="inlineStr">
+      <c r="AE178" t="inlineStr">
         <is>
           <t>거친 독모래 광석</t>
         </is>
       </c>
-      <c r="AF174" t="inlineStr">
+      <c r="AF178" t="inlineStr">
         <is>
           <t>毒砂粗矿</t>
         </is>
       </c>
-      <c r="AG174" t="inlineStr">
+      <c r="AG178" t="inlineStr">
         <is>
           <t>毒砂粗礦</t>
         </is>
       </c>
-      <c r="AH174" t="inlineStr">
+      <c r="AH178" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>

--- a/Sinner_Stuff/dispatch.xlsx
+++ b/Sinner_Stuff/dispatch.xlsx
@@ -553,12 +553,12 @@
       </c>
       <c r="AA1" t="inlineStr">
         <is>
+          <t>Base Reward TW</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
           <t>Base Reward Quantity</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Base Reward TW</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
@@ -28034,86 +28034,86 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1099001</v>
+        <v>1055001</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Dream Interpretation</t>
+          <t>Oceanographer</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>夢の解析</t>
+          <t>海洋学者</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>꿈의 해석</t>
+          <t>해양학자</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>梦的解析</t>
+          <t>海洋学家</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>夢的解析</t>
+          <t>海洋學家</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+          <t>Recently, marine animals at the Eastside Aquarium have been dying unnaturally and Mania contamination is suspected to be the cause. The Bureau has been requested to send a Sinner with significant contributions in the marine biology field to assist with the investigation.</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+          <t>最近、ニューシティの水族館で海洋生物が相次いで不審死している。死因は恐らく狂瞳病の汚染だ。海洋生物研究の実績があるコンビクトを研究協力のため派遣をするよう、管理局に申請が届いた。</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+          <t>최근 신성 해양관에서 해양 생물이 연이어 의문사했으며, 사인은 변이 오염과 관련된 것으로 추정한다. 이에 해양관 측은 관리국에 해양 생물을 잘 알고 있는 수감자의 파견을 요청하여 조사 지원을 받고자 한다.</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+          <t>近日，新城海洋馆的海洋生物接连离奇死亡，死因疑似涉及狂厄污染。现特向管理局申请派遣一位对海洋生物研究颇有成果的禁闭者前往协助研究。</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+          <t>近日，新城海洋館的海洋生物接連離奇死亡，死因疑似涉及狂厄汙染。現特向管理局申請派遣一位對海洋生物研究頗有成果的禁閉者前往協助研究。</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Hecate</t>
+          <t>Shin</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>ヘカテー</t>
+          <t>シズ</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>헤카테</t>
+          <t>원진</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>源津</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>赫卡蒂</t>
+          <t>源津</t>
         </is>
       </c>
       <c r="R178" t="inlineStr"/>
@@ -28123,60 +28123,530 @@
       <c r="V178" t="inlineStr"/>
       <c r="W178" t="inlineStr">
         <is>
+          <t>Twilight Crystal</t>
+        </is>
+      </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>暮輝結晶</t>
+        </is>
+      </c>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>노을 결정</t>
+        </is>
+      </c>
+      <c r="Z178" t="inlineStr">
+        <is>
+          <t>暮辉晶</t>
+        </is>
+      </c>
+      <c r="AA178" t="inlineStr">
+        <is>
+          <t>暮輝晶</t>
+        </is>
+      </c>
+      <c r="AB178" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC178" t="inlineStr">
+        <is>
+          <t>Twilight Stone Concentrate</t>
+        </is>
+      </c>
+      <c r="AD178" t="inlineStr">
+        <is>
+          <t>暮輝石の精鉱</t>
+        </is>
+      </c>
+      <c r="AE178" t="inlineStr">
+        <is>
+          <t>정교한 노을석 광석</t>
+        </is>
+      </c>
+      <c r="AF178" t="inlineStr">
+        <is>
+          <t>暮辉石精矿</t>
+        </is>
+      </c>
+      <c r="AG178" t="inlineStr">
+        <is>
+          <t>暮輝石精礦</t>
+        </is>
+      </c>
+      <c r="AH178" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1055002</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Dessert Festival</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>スイーツフェス</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>디저트 축제</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>甜品节</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>甜點節</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Ads about the Eastside Dessert Festival are everywhere, claiming to offer unlimited free samples of new desserts! After getting the same ad for the tenth time, a certain Sinner finally gives in and submits an outing application.</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>現在、ニューシティでスイーツフェスが大々的に宣伝されている。なんと新作スイーツが全て無料で試食し放題だという。あるコンビクトは広告を見た回数が10回目に達した時、とうとう我慢できずに管理局に外出申請を出した。</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>신메뉴 디저트를 무료로 무제한 맛볼 수 있는 신성 디저트 축제의 광고가 연일 쏟아졌다. 관련 광고를 벌써 열 번이나 본 어느 수감자는 결국 유혹을 이기지 못해 관리국에 외출을 신청했다.</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>新城甜品节火热宣传中，所有新式甜品免费试吃到饱！第十次刷到相关宣传广告，某位禁闭者终于按耐不住，向管理局提出了外出申请。</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>新城甜點節火熱宣傳中，所有新式甜點免費試吃到飽！第十次看到相關宣傳廣告，某位禁閉者終於按捺不住，向管理局提出了外出申請。</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>Poffy</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>ポフィー</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>뽀삐</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>啵啡</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>啵啡</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr">
+        <is>
+          <t>Twilight Stone Concentrate</t>
+        </is>
+      </c>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>暮輝石の精鉱</t>
+        </is>
+      </c>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>정교한 노을석 광석</t>
+        </is>
+      </c>
+      <c r="Z179" t="inlineStr">
+        <is>
+          <t>暮辉石精矿</t>
+        </is>
+      </c>
+      <c r="AA179" t="inlineStr">
+        <is>
+          <t>暮輝石精礦</t>
+        </is>
+      </c>
+      <c r="AB179" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC179" t="inlineStr">
+        <is>
+          <t>Twilight Stone Raw Ore</t>
+        </is>
+      </c>
+      <c r="AD179" t="inlineStr">
+        <is>
+          <t>暮輝石の原鉱</t>
+        </is>
+      </c>
+      <c r="AE179" t="inlineStr">
+        <is>
+          <t>거친 노을석 광석</t>
+        </is>
+      </c>
+      <c r="AF179" t="inlineStr">
+        <is>
+          <t>暮辉石粗矿</t>
+        </is>
+      </c>
+      <c r="AG179" t="inlineStr">
+        <is>
+          <t>暮輝石粗礦</t>
+        </is>
+      </c>
+      <c r="AH179" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1055003</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Tasty Visit</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>試食トレンド</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>가게 탐방</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>探店潮流</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>探店潮流</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>A new dessert parlor has recently launched a major online promotional campaign, inviting influencers to sample their products. Having received the invite, both Poffy and Ignis are eager about the tempting offer.</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>最近、ある新しいスイーツ店がネット上で大規模なプロモーションを展開し、多くのインフルエンサーに試食の招待を送っている。招待を受けたポフィーとイグニはどちらも強い興味を示した。</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>최근 한 신흥 디저트 가게가 온라인에서 대대적인 홍보를 진행하며 여러 인플루언서를 초청했다. 초대를 받은 뽀삐와 이그니스 모두 큰 관심을 보였다.</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>近期，某新兴甜品店在网络进行大规模推广，并邀请各路博主前往探店试吃。收到邀请的啵啡和伊格尼都表现出了极大的兴趣。</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>近期，某新興甜點店在網路進行大規模推廣，並邀請各路網紅前往店家試吃。收到邀請的啵啡和伊格尼都表現出了極大的興趣。</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>Poffy</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>ポフィー</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>뽀삐</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>啵啡</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>啵啡</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Ignis</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>イグニ</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>이그니스</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>伊格尼</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>伊格尼</t>
+        </is>
+      </c>
+      <c r="W180" t="inlineStr">
+        <is>
+          <t>Twilight Stone Concentrate</t>
+        </is>
+      </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>暮輝石の精鉱</t>
+        </is>
+      </c>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>정교한 노을석 광석</t>
+        </is>
+      </c>
+      <c r="Z180" t="inlineStr">
+        <is>
+          <t>暮辉石精矿</t>
+        </is>
+      </c>
+      <c r="AA180" t="inlineStr">
+        <is>
+          <t>暮輝石精礦</t>
+        </is>
+      </c>
+      <c r="AB180" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC180" t="inlineStr">
+        <is>
+          <t>Twilight Stone Concentrate</t>
+        </is>
+      </c>
+      <c r="AD180" t="inlineStr">
+        <is>
+          <t>暮輝石の精鉱</t>
+        </is>
+      </c>
+      <c r="AE180" t="inlineStr">
+        <is>
+          <t>정교한 노을석 광석</t>
+        </is>
+      </c>
+      <c r="AF180" t="inlineStr">
+        <is>
+          <t>暮辉石精矿</t>
+        </is>
+      </c>
+      <c r="AG180" t="inlineStr">
+        <is>
+          <t>暮輝石精礦</t>
+        </is>
+      </c>
+      <c r="AH180" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1099001</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Dream Interpretation</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>夢の解析</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>꿈의 해석</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>梦的解析</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>夢的解析</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Residents in some areas of Eastside often suffer from nightmares. It is necessary to find out why.</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>ニューシティの一部エリアの住民がよくナイトメアにうなされている。具体的な原因を調査しなければならない。</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>신성 일부 지역 주민들은 악몽을 자주꾼다. 구체적인 원인을 철저히 조사해야 한다.</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>新城一些区域的居民经常做噩梦，需要查清具体原因。</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>新城一些區域的居民經常做惡夢，需要查明具體原因。</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Hecate</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>ヘカテー</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>헤카테</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>赫卡蒂</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr">
+        <is>
           <t>Arsenopyrite Concentrate</t>
         </is>
       </c>
-      <c r="X178" t="inlineStr">
+      <c r="X181" t="inlineStr">
         <is>
           <t>毒砂の精鉱</t>
         </is>
       </c>
-      <c r="Y178" t="inlineStr">
+      <c r="Y181" t="inlineStr">
         <is>
           <t>정교한 독모래 광석</t>
         </is>
       </c>
-      <c r="Z178" t="inlineStr">
+      <c r="Z181" t="inlineStr">
         <is>
           <t>毒砂精矿</t>
         </is>
       </c>
-      <c r="AA178" t="inlineStr">
+      <c r="AA181" t="inlineStr">
         <is>
           <t>毒砂精礦</t>
         </is>
       </c>
-      <c r="AB178" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="AC178" t="inlineStr">
+      <c r="AB181" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AC181" t="inlineStr">
         <is>
           <t>Arsenopyrite Raw Ore</t>
         </is>
       </c>
-      <c r="AD178" t="inlineStr">
+      <c r="AD181" t="inlineStr">
         <is>
           <t>毒砂の原鉱</t>
         </is>
       </c>
-      <c r="AE178" t="inlineStr">
+      <c r="AE181" t="inlineStr">
         <is>
           <t>거친 독모래 광석</t>
         </is>
       </c>
-      <c r="AF178" t="inlineStr">
+      <c r="AF181" t="inlineStr">
         <is>
           <t>毒砂粗矿</t>
         </is>
       </c>
-      <c r="AG178" t="inlineStr">
+      <c r="AG181" t="inlineStr">
         <is>
           <t>毒砂粗礦</t>
         </is>
       </c>
-      <c r="AH178" t="inlineStr">
+      <c r="AH181" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
